--- a/Дизайнерская документация/Медицина.xlsx
+++ b/Дизайнерская документация/Медицина.xlsx
@@ -4,10 +4,15 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="Аркуш1" sheetId="1" r:id="rId1"/>
+    <sheet name="Медицина" sheetId="2" r:id="rId1"/>
+    <sheet name="Здоровье" sheetId="7" r:id="rId2"/>
+    <sheet name="Травмы" sheetId="3" r:id="rId3"/>
+    <sheet name="Болезни" sheetId="8" r:id="rId4"/>
+    <sheet name="Эфекты травм" sheetId="5" r:id="rId5"/>
+    <sheet name="Постэфекты травм" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -53,7 +58,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -69,9 +74,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -109,12 +114,12 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -149,7 +154,7 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -181,7 +186,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -333,10 +338,75 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Дизайнерская документация/Медицина.xlsx
+++ b/Дизайнерская документация/Медицина.xlsx
@@ -4,15 +4,15 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Медицина" sheetId="2" r:id="rId1"/>
     <sheet name="Здоровье" sheetId="7" r:id="rId2"/>
     <sheet name="Травмы" sheetId="3" r:id="rId3"/>
-    <sheet name="Болезни" sheetId="8" r:id="rId4"/>
-    <sheet name="Эфекты травм" sheetId="5" r:id="rId5"/>
-    <sheet name="Постэфекты травм" sheetId="6" r:id="rId6"/>
+    <sheet name="Эфекты травм" sheetId="5" r:id="rId4"/>
+    <sheet name="Постэфекты травм" sheetId="6" r:id="rId5"/>
+    <sheet name="Болезни" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,6 +21,93 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+  <si>
+    <t>Сознание</t>
+  </si>
+  <si>
+    <t>Движение</t>
+  </si>
+  <si>
+    <t>Работа</t>
+  </si>
+  <si>
+    <t>Речь</t>
+  </si>
+  <si>
+    <t>Зрение</t>
+  </si>
+  <si>
+    <t>Слух</t>
+  </si>
+  <si>
+    <t>Влияет на</t>
+  </si>
+  <si>
+    <t>Все остальные параметы</t>
+  </si>
+  <si>
+    <t>Скорость передвижения</t>
+  </si>
+  <si>
+    <t>Шанс удачного выполнения задания</t>
+  </si>
+  <si>
+    <t>Качество исходящего звука в войсчате</t>
+  </si>
+  <si>
+    <t>Параметр здоровья</t>
+  </si>
+  <si>
+    <t>Основные парасеты здоровья</t>
+  </si>
+  <si>
+    <t>Эффект при нулевом значении</t>
+  </si>
+  <si>
+    <t>Игрок теряет сознание</t>
+  </si>
+  <si>
+    <t>Игрок падает на пол</t>
+  </si>
+  <si>
+    <t>Игрок теряет возможность работать</t>
+  </si>
+  <si>
+    <t>Игрок не может говорить</t>
+  </si>
+  <si>
+    <t>Игрок ничего не слышит</t>
+  </si>
+  <si>
+    <t>Качество принимаемых игроком звуков</t>
+  </si>
+  <si>
+    <t>Игрок ничего не видит 
+(Возможно визуализация шумящих объектов)</t>
+  </si>
+  <si>
+    <t>Доролнительные параметры</t>
+  </si>
+  <si>
+    <t>Травма</t>
+  </si>
+  <si>
+    <t>Вызывает</t>
+  </si>
+  <si>
+    <t>Эффект травмы</t>
+  </si>
+  <si>
+    <t>Проявление</t>
+  </si>
+  <si>
+    <t>После лечения вызывает</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -34,15 +121,33 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -50,12 +155,322 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -353,48 +768,198 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.28515625" customWidth="1"/>
+    <col min="4" max="4" width="65.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B9" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="20"/>
+      <c r="D9" s="22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B4:D4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Дизайнерская документация/Медицина.xlsx
+++ b/Дизайнерская документация/Медицина.xlsx
@@ -4,15 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Медицина" sheetId="2" r:id="rId1"/>
     <sheet name="Здоровье" sheetId="7" r:id="rId2"/>
     <sheet name="Травмы" sheetId="3" r:id="rId3"/>
-    <sheet name="Эфекты травм" sheetId="5" r:id="rId4"/>
-    <sheet name="Постэфекты травм" sheetId="6" r:id="rId5"/>
-    <sheet name="Болезни" sheetId="8" r:id="rId6"/>
+    <sheet name="Медикоменты" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="74">
   <si>
     <t>Сознание</t>
   </si>
@@ -71,9 +69,6 @@
     <t>Игрок теряет сознание</t>
   </si>
   <si>
-    <t>Игрок падает на пол</t>
-  </si>
-  <si>
     <t>Игрок теряет возможность работать</t>
   </si>
   <si>
@@ -86,33 +81,184 @@
     <t>Качество принимаемых игроком звуков</t>
   </si>
   <si>
-    <t>Игрок ничего не видит 
+    <t>Доролнительные параметры</t>
+  </si>
+  <si>
+    <t>Травма</t>
+  </si>
+  <si>
+    <t>Влияние на характеристики</t>
+  </si>
+  <si>
+    <t>Негативные параметры</t>
+  </si>
+  <si>
+    <t>Боль</t>
+  </si>
+  <si>
+    <t>Эффект при максимально значении</t>
+  </si>
+  <si>
+    <t>Сознание (Обратная зависимость)</t>
+  </si>
+  <si>
+    <t>Примечание</t>
+  </si>
+  <si>
+    <t>С увеличением параметра появляются визуальные проявления</t>
+  </si>
+  <si>
+    <t>Эффект нулевого значения сознания (Болевой шок)</t>
+  </si>
+  <si>
+    <t>Дополнительные эффекты</t>
+  </si>
+  <si>
+    <t>Лечение</t>
+  </si>
+  <si>
+    <t>Влияние на характеристики после лечения</t>
+  </si>
+  <si>
+    <t>Дополнительные эффекты (после лечения)</t>
+  </si>
+  <si>
+    <t>1 ст.</t>
+  </si>
+  <si>
+    <t>2 ст.</t>
+  </si>
+  <si>
+    <t>3 ст.</t>
+  </si>
+  <si>
+    <t>Ушиб ноги</t>
+  </si>
+  <si>
+    <t>Ушиб руки</t>
+  </si>
+  <si>
+    <t>Другие ушибы</t>
+  </si>
+  <si>
+    <t>Перелом ноги</t>
+  </si>
+  <si>
+    <t>Наложение эластичного бинта</t>
+  </si>
+  <si>
+    <t>Наложение шины</t>
+  </si>
+  <si>
+    <t>т.с.</t>
+  </si>
+  <si>
+    <t>Откр.</t>
+  </si>
+  <si>
+    <t>Закр.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Перелом руки </t>
+  </si>
+  <si>
+    <t>Жировая эмболия (20 %)</t>
+  </si>
+  <si>
+    <t>Медикомент</t>
+  </si>
+  <si>
+    <t>Обезбаливающие</t>
+  </si>
+  <si>
+    <t>среднее</t>
+  </si>
+  <si>
+    <t>сильное</t>
+  </si>
+  <si>
+    <t>наркотческая зависимость (10%)</t>
+  </si>
+  <si>
+    <t>Время действия</t>
+  </si>
+  <si>
+    <t>наркотческая зависимость (1%)</t>
+  </si>
+  <si>
+    <t>Эластичный бинт</t>
+  </si>
+  <si>
+    <t>нога</t>
+  </si>
+  <si>
+    <t>рука</t>
+  </si>
+  <si>
+    <t>др.</t>
+  </si>
+  <si>
+    <t>5 мин</t>
+  </si>
+  <si>
+    <t>10 мин</t>
+  </si>
+  <si>
+    <t>Препарат разжижения эмбол</t>
+  </si>
+  <si>
+    <t>Жировая эмболия</t>
+  </si>
+  <si>
+    <t>Игрок падает на пол и не может двигаться</t>
+  </si>
+  <si>
+    <t>2 мин</t>
+  </si>
+  <si>
+    <t>наркотческая зависимость (20%)</t>
+  </si>
+  <si>
+    <t>Шина</t>
+  </si>
+  <si>
+    <t>Космическая зараза</t>
+  </si>
+  <si>
+    <t>тип 1</t>
+  </si>
+  <si>
+    <t>тип 2</t>
+  </si>
+  <si>
+    <t>тип 3</t>
+  </si>
+  <si>
+    <t>Игрок ничего не видит (Движение - 50%)
 (Возможно визуализация шумящих объектов)</t>
   </si>
   <si>
-    <t>Доролнительные параметры</t>
-  </si>
-  <si>
-    <t>Травма</t>
-  </si>
-  <si>
-    <t>Вызывает</t>
-  </si>
-  <si>
-    <t>Эффект травмы</t>
-  </si>
-  <si>
-    <t>Проявление</t>
-  </si>
-  <si>
-    <t>После лечения вызывает</t>
+    <t>Антидот космической заразы тип 1</t>
+  </si>
+  <si>
+    <t>Антидот космической заразы тип 2</t>
+  </si>
+  <si>
+    <t>Антидот космической заразы тип 3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,7 +267,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -146,8 +292,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -399,12 +575,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -414,15 +629,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -432,48 +638,90 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Процентный" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -754,7 +1002,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -768,10 +1016,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D11"/>
+  <dimension ref="A2:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -779,102 +1027,190 @@
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39.28515625" customWidth="1"/>
     <col min="4" max="4" width="65.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="66.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="4" t="s">
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="48"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="48"/>
+      <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="7" t="s">
+      <c r="E3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="48"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="48"/>
+      <c r="B4" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9"/>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="20" t="s">
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="48"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="48"/>
+      <c r="B5" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="9" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="11" t="s">
+      <c r="E5" s="31"/>
+      <c r="F5" s="48"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="48"/>
+      <c r="B6" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="28"/>
+      <c r="F6" s="48"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="48"/>
+      <c r="B7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="18" t="s">
+      <c r="E7" s="30"/>
+      <c r="F7" s="48"/>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="48"/>
+      <c r="B8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="48"/>
+    </row>
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="48"/>
+      <c r="B9" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="31"/>
+      <c r="F9" s="48"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="48"/>
+      <c r="B10" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="12" t="s">
+      <c r="E10" s="28"/>
+      <c r="F10" s="48"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="48"/>
+      <c r="B11" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>18</v>
-      </c>
+      <c r="E11" s="30"/>
+      <c r="F11" s="48"/>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="48"/>
+      <c r="B12" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="48"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="48"/>
+      <c r="B13" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="48"/>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="48"/>
+      <c r="B14" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="48"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="48"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B4:D4"/>
+  <mergeCells count="3">
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B12:E12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -882,96 +1218,1838 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E2"/>
+  <dimension ref="A1:U37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="10" width="10.7109375" style="16" customWidth="1"/>
+    <col min="11" max="11" width="29.5703125" customWidth="1"/>
+    <col min="12" max="12" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="19" width="10.7109375" style="16" customWidth="1"/>
+    <col min="20" max="20" width="26.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="48"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="48"/>
+      <c r="U1" s="48"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="48"/>
+      <c r="B2" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="35"/>
+      <c r="D2" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="U2" s="48"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="48"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="E2" t="s">
-        <v>26</v>
-      </c>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="O3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="P3" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="R3" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="S3" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="T3" s="37"/>
+      <c r="U3" s="48"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="48"/>
+      <c r="B4" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="41">
+        <v>0</v>
+      </c>
+      <c r="E4" s="41">
+        <v>-0.1</v>
+      </c>
+      <c r="F4" s="41">
+        <v>-0.05</v>
+      </c>
+      <c r="G4" s="41">
+        <v>0</v>
+      </c>
+      <c r="H4" s="41">
+        <v>0</v>
+      </c>
+      <c r="I4" s="41">
+        <v>0</v>
+      </c>
+      <c r="J4" s="41">
+        <v>0.1</v>
+      </c>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="M4" s="41">
+        <v>0</v>
+      </c>
+      <c r="N4" s="41">
+        <v>0.01</v>
+      </c>
+      <c r="O4" s="41">
+        <v>0</v>
+      </c>
+      <c r="P4" s="41">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="41">
+        <v>0</v>
+      </c>
+      <c r="R4" s="41">
+        <v>0</v>
+      </c>
+      <c r="S4" s="41">
+        <v>0.01</v>
+      </c>
+      <c r="T4" s="40"/>
+      <c r="U4" s="48"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="48"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="43">
+        <v>0</v>
+      </c>
+      <c r="E5" s="43">
+        <v>-0.3</v>
+      </c>
+      <c r="F5" s="43">
+        <v>-0.1</v>
+      </c>
+      <c r="G5" s="43">
+        <v>0</v>
+      </c>
+      <c r="H5" s="43">
+        <v>0</v>
+      </c>
+      <c r="I5" s="43">
+        <v>0</v>
+      </c>
+      <c r="J5" s="43">
+        <v>0.3</v>
+      </c>
+      <c r="K5" s="42"/>
+      <c r="L5" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="M5" s="43">
+        <v>0</v>
+      </c>
+      <c r="N5" s="43">
+        <v>0.05</v>
+      </c>
+      <c r="O5" s="43">
+        <v>0.01</v>
+      </c>
+      <c r="P5" s="43">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="43">
+        <v>0</v>
+      </c>
+      <c r="R5" s="43">
+        <v>0</v>
+      </c>
+      <c r="S5" s="43">
+        <v>0.05</v>
+      </c>
+      <c r="T5" s="42"/>
+      <c r="U5" s="48"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="48"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="45">
+        <v>0</v>
+      </c>
+      <c r="E6" s="45">
+        <v>-0.5</v>
+      </c>
+      <c r="F6" s="45">
+        <v>-0.2</v>
+      </c>
+      <c r="G6" s="45">
+        <v>0</v>
+      </c>
+      <c r="H6" s="45">
+        <v>0</v>
+      </c>
+      <c r="I6" s="45">
+        <v>0</v>
+      </c>
+      <c r="J6" s="45">
+        <v>0.5</v>
+      </c>
+      <c r="K6" s="39"/>
+      <c r="L6" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="M6" s="45">
+        <v>0</v>
+      </c>
+      <c r="N6" s="45">
+        <v>0.1</v>
+      </c>
+      <c r="O6" s="45">
+        <v>0.05</v>
+      </c>
+      <c r="P6" s="45">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="45">
+        <v>0</v>
+      </c>
+      <c r="R6" s="45">
+        <v>0</v>
+      </c>
+      <c r="S6" s="45">
+        <v>0.1</v>
+      </c>
+      <c r="T6" s="39"/>
+      <c r="U6" s="48"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="48"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="43"/>
+      <c r="N7" s="43"/>
+      <c r="O7" s="43"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="43"/>
+      <c r="R7" s="43"/>
+      <c r="S7" s="43"/>
+      <c r="T7" s="42"/>
+      <c r="U7" s="48"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="48"/>
+      <c r="B8" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="43">
+        <v>0</v>
+      </c>
+      <c r="E8" s="43">
+        <v>-0.05</v>
+      </c>
+      <c r="F8" s="43">
+        <v>-0.2</v>
+      </c>
+      <c r="G8" s="43">
+        <v>0</v>
+      </c>
+      <c r="H8" s="43">
+        <v>0</v>
+      </c>
+      <c r="I8" s="43">
+        <v>0</v>
+      </c>
+      <c r="J8" s="43">
+        <v>0.1</v>
+      </c>
+      <c r="K8" s="42"/>
+      <c r="L8" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="M8" s="43">
+        <v>0</v>
+      </c>
+      <c r="N8" s="43">
+        <v>0</v>
+      </c>
+      <c r="O8" s="43">
+        <v>0.01</v>
+      </c>
+      <c r="P8" s="43">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="43">
+        <v>0</v>
+      </c>
+      <c r="R8" s="43">
+        <v>0</v>
+      </c>
+      <c r="S8" s="43">
+        <v>0.01</v>
+      </c>
+      <c r="T8" s="42"/>
+      <c r="U8" s="48"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="48"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="43">
+        <v>0</v>
+      </c>
+      <c r="E9" s="43">
+        <v>-0.1</v>
+      </c>
+      <c r="F9" s="43">
+        <v>-0.5</v>
+      </c>
+      <c r="G9" s="43">
+        <v>0</v>
+      </c>
+      <c r="H9" s="43">
+        <v>0</v>
+      </c>
+      <c r="I9" s="43">
+        <v>0</v>
+      </c>
+      <c r="J9" s="43">
+        <v>0.3</v>
+      </c>
+      <c r="K9" s="42"/>
+      <c r="L9" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="M9" s="43">
+        <v>0</v>
+      </c>
+      <c r="N9" s="43">
+        <v>0.01</v>
+      </c>
+      <c r="O9" s="43">
+        <v>0.05</v>
+      </c>
+      <c r="P9" s="43">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="43">
+        <v>0</v>
+      </c>
+      <c r="R9" s="43">
+        <v>0</v>
+      </c>
+      <c r="S9" s="43">
+        <v>0.05</v>
+      </c>
+      <c r="T9" s="42"/>
+      <c r="U9" s="48"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="48"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="45">
+        <v>0</v>
+      </c>
+      <c r="E10" s="45">
+        <v>-0.15</v>
+      </c>
+      <c r="F10" s="45">
+        <v>-0.8</v>
+      </c>
+      <c r="G10" s="45">
+        <v>0</v>
+      </c>
+      <c r="H10" s="45">
+        <v>0</v>
+      </c>
+      <c r="I10" s="45">
+        <v>0</v>
+      </c>
+      <c r="J10" s="45">
+        <v>0.5</v>
+      </c>
+      <c r="K10" s="39"/>
+      <c r="L10" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="M10" s="45">
+        <v>0</v>
+      </c>
+      <c r="N10" s="45">
+        <v>0.05</v>
+      </c>
+      <c r="O10" s="45">
+        <v>0.1</v>
+      </c>
+      <c r="P10" s="45">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="45">
+        <v>0</v>
+      </c>
+      <c r="R10" s="45">
+        <v>0</v>
+      </c>
+      <c r="S10" s="45">
+        <v>0.1</v>
+      </c>
+      <c r="T10" s="39"/>
+      <c r="U10" s="48"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="48"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="43"/>
+      <c r="N11" s="43"/>
+      <c r="O11" s="43"/>
+      <c r="P11" s="43"/>
+      <c r="Q11" s="43"/>
+      <c r="R11" s="43"/>
+      <c r="S11" s="43"/>
+      <c r="T11" s="42"/>
+      <c r="U11" s="48"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="48"/>
+      <c r="B12" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="43">
+        <v>0</v>
+      </c>
+      <c r="E12" s="43">
+        <v>-0.05</v>
+      </c>
+      <c r="F12" s="43">
+        <v>-0.05</v>
+      </c>
+      <c r="G12" s="43">
+        <v>0</v>
+      </c>
+      <c r="H12" s="43">
+        <v>0</v>
+      </c>
+      <c r="I12" s="43">
+        <v>0</v>
+      </c>
+      <c r="J12" s="43">
+        <v>0.1</v>
+      </c>
+      <c r="K12" s="42"/>
+      <c r="L12" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="M12" s="43">
+        <v>0</v>
+      </c>
+      <c r="N12" s="43">
+        <v>0</v>
+      </c>
+      <c r="O12" s="43">
+        <v>0</v>
+      </c>
+      <c r="P12" s="43">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="43">
+        <v>0</v>
+      </c>
+      <c r="R12" s="43">
+        <v>0</v>
+      </c>
+      <c r="S12" s="43">
+        <v>0</v>
+      </c>
+      <c r="T12" s="42"/>
+      <c r="U12" s="48"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="48"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="43">
+        <v>0</v>
+      </c>
+      <c r="E13" s="43">
+        <v>-0.1</v>
+      </c>
+      <c r="F13" s="43">
+        <v>-0.1</v>
+      </c>
+      <c r="G13" s="43">
+        <v>0</v>
+      </c>
+      <c r="H13" s="43">
+        <v>0</v>
+      </c>
+      <c r="I13" s="43">
+        <v>0</v>
+      </c>
+      <c r="J13" s="43">
+        <v>0.3</v>
+      </c>
+      <c r="K13" s="42"/>
+      <c r="L13" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="M13" s="43">
+        <v>0</v>
+      </c>
+      <c r="N13" s="43">
+        <v>0</v>
+      </c>
+      <c r="O13" s="43">
+        <v>0</v>
+      </c>
+      <c r="P13" s="43">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="43">
+        <v>0</v>
+      </c>
+      <c r="R13" s="43">
+        <v>0</v>
+      </c>
+      <c r="S13" s="43">
+        <v>0</v>
+      </c>
+      <c r="T13" s="42"/>
+      <c r="U13" s="48"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="48"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="45">
+        <v>0</v>
+      </c>
+      <c r="E14" s="45">
+        <v>-0.2</v>
+      </c>
+      <c r="F14" s="45">
+        <v>-0.2</v>
+      </c>
+      <c r="G14" s="45">
+        <v>0</v>
+      </c>
+      <c r="H14" s="45">
+        <v>0</v>
+      </c>
+      <c r="I14" s="45">
+        <v>0</v>
+      </c>
+      <c r="J14" s="45">
+        <v>0.5</v>
+      </c>
+      <c r="K14" s="39"/>
+      <c r="L14" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="M14" s="45">
+        <v>0</v>
+      </c>
+      <c r="N14" s="45">
+        <v>0</v>
+      </c>
+      <c r="O14" s="45">
+        <v>0</v>
+      </c>
+      <c r="P14" s="45">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="45">
+        <v>0</v>
+      </c>
+      <c r="R14" s="45">
+        <v>0</v>
+      </c>
+      <c r="S14" s="45">
+        <v>0</v>
+      </c>
+      <c r="T14" s="39"/>
+      <c r="U14" s="48"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="48"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="43"/>
+      <c r="N15" s="43"/>
+      <c r="O15" s="43"/>
+      <c r="P15" s="43"/>
+      <c r="Q15" s="43"/>
+      <c r="R15" s="43"/>
+      <c r="S15" s="43"/>
+      <c r="T15" s="42"/>
+      <c r="U15" s="48"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="48"/>
+      <c r="B16" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="43">
+        <v>0</v>
+      </c>
+      <c r="E16" s="43">
+        <v>-0.8</v>
+      </c>
+      <c r="F16" s="43">
+        <v>-0.2</v>
+      </c>
+      <c r="G16" s="43">
+        <v>0</v>
+      </c>
+      <c r="H16" s="43">
+        <v>0</v>
+      </c>
+      <c r="I16" s="43">
+        <v>0</v>
+      </c>
+      <c r="J16" s="43">
+        <v>0.8</v>
+      </c>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="M16" s="43">
+        <v>0</v>
+      </c>
+      <c r="N16" s="43">
+        <v>0</v>
+      </c>
+      <c r="O16" s="43">
+        <v>0</v>
+      </c>
+      <c r="P16" s="43">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="43">
+        <v>0</v>
+      </c>
+      <c r="R16" s="43">
+        <v>0</v>
+      </c>
+      <c r="S16" s="43">
+        <v>0</v>
+      </c>
+      <c r="T16" s="42"/>
+      <c r="U16" s="48"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" s="48"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="45">
+        <v>0</v>
+      </c>
+      <c r="E17" s="45">
+        <v>-0.8</v>
+      </c>
+      <c r="F17" s="45">
+        <v>-0.2</v>
+      </c>
+      <c r="G17" s="45">
+        <v>0</v>
+      </c>
+      <c r="H17" s="45">
+        <v>0</v>
+      </c>
+      <c r="I17" s="45">
+        <v>0</v>
+      </c>
+      <c r="J17" s="45">
+        <v>0.8</v>
+      </c>
+      <c r="K17" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="L17" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="M17" s="45">
+        <v>0</v>
+      </c>
+      <c r="N17" s="45">
+        <v>0</v>
+      </c>
+      <c r="O17" s="45">
+        <v>0</v>
+      </c>
+      <c r="P17" s="45">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="45">
+        <v>0</v>
+      </c>
+      <c r="R17" s="45">
+        <v>0</v>
+      </c>
+      <c r="S17" s="45">
+        <v>0</v>
+      </c>
+      <c r="T17" s="39"/>
+      <c r="U17" s="48"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" s="48"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="44"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="43"/>
+      <c r="N18" s="43"/>
+      <c r="O18" s="43"/>
+      <c r="P18" s="43"/>
+      <c r="Q18" s="43"/>
+      <c r="R18" s="43"/>
+      <c r="S18" s="43"/>
+      <c r="T18" s="42"/>
+      <c r="U18" s="48"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19" s="48"/>
+      <c r="B19" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="43">
+        <v>0</v>
+      </c>
+      <c r="E19" s="43">
+        <v>-0.3</v>
+      </c>
+      <c r="F19" s="43">
+        <v>-0.8</v>
+      </c>
+      <c r="G19" s="43">
+        <v>0</v>
+      </c>
+      <c r="H19" s="43">
+        <v>0</v>
+      </c>
+      <c r="I19" s="43">
+        <v>0</v>
+      </c>
+      <c r="J19" s="43">
+        <v>0.8</v>
+      </c>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="M19" s="43">
+        <v>0</v>
+      </c>
+      <c r="N19" s="43">
+        <v>0</v>
+      </c>
+      <c r="O19" s="43">
+        <v>0</v>
+      </c>
+      <c r="P19" s="43">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="43">
+        <v>0</v>
+      </c>
+      <c r="R19" s="43">
+        <v>0</v>
+      </c>
+      <c r="S19" s="43">
+        <v>0</v>
+      </c>
+      <c r="T19" s="42"/>
+      <c r="U19" s="48"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20" s="48"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="45">
+        <v>0</v>
+      </c>
+      <c r="E20" s="45">
+        <v>-0.3</v>
+      </c>
+      <c r="F20" s="45">
+        <v>-0.8</v>
+      </c>
+      <c r="G20" s="45">
+        <v>0</v>
+      </c>
+      <c r="H20" s="45">
+        <v>0</v>
+      </c>
+      <c r="I20" s="45">
+        <v>0</v>
+      </c>
+      <c r="J20" s="45">
+        <v>0.8</v>
+      </c>
+      <c r="K20" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="L20" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="M20" s="45">
+        <v>0</v>
+      </c>
+      <c r="N20" s="45">
+        <v>0</v>
+      </c>
+      <c r="O20" s="45">
+        <v>0</v>
+      </c>
+      <c r="P20" s="45">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="45">
+        <v>0</v>
+      </c>
+      <c r="R20" s="45">
+        <v>0</v>
+      </c>
+      <c r="S20" s="45">
+        <v>0</v>
+      </c>
+      <c r="T20" s="39"/>
+      <c r="U20" s="48"/>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21" s="48"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="42"/>
+      <c r="M21" s="43">
+        <v>0</v>
+      </c>
+      <c r="N21" s="43">
+        <v>0</v>
+      </c>
+      <c r="O21" s="43">
+        <v>0</v>
+      </c>
+      <c r="P21" s="43">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="43">
+        <v>0</v>
+      </c>
+      <c r="R21" s="43">
+        <v>0</v>
+      </c>
+      <c r="S21" s="43">
+        <v>0</v>
+      </c>
+      <c r="T21" s="42"/>
+      <c r="U21" s="48"/>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22" s="48"/>
+      <c r="B22" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="47"/>
+      <c r="D22" s="45">
+        <v>-0.8</v>
+      </c>
+      <c r="E22" s="45">
+        <v>0</v>
+      </c>
+      <c r="F22" s="45">
+        <v>0</v>
+      </c>
+      <c r="G22" s="45">
+        <v>0</v>
+      </c>
+      <c r="H22" s="45">
+        <v>0</v>
+      </c>
+      <c r="I22" s="45">
+        <v>0</v>
+      </c>
+      <c r="J22" s="45">
+        <v>0</v>
+      </c>
+      <c r="K22" s="39"/>
+      <c r="L22" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="M22" s="45">
+        <v>0</v>
+      </c>
+      <c r="N22" s="45">
+        <v>0</v>
+      </c>
+      <c r="O22" s="45">
+        <v>0</v>
+      </c>
+      <c r="P22" s="45">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="45">
+        <v>0</v>
+      </c>
+      <c r="R22" s="45">
+        <v>0</v>
+      </c>
+      <c r="S22" s="45">
+        <v>0</v>
+      </c>
+      <c r="T22" s="39"/>
+      <c r="U22" s="48"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23" s="48"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="42"/>
+      <c r="M23" s="43"/>
+      <c r="N23" s="43"/>
+      <c r="O23" s="43"/>
+      <c r="P23" s="43"/>
+      <c r="Q23" s="43"/>
+      <c r="R23" s="43"/>
+      <c r="S23" s="43"/>
+      <c r="T23" s="42"/>
+      <c r="U23" s="48"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A24" s="48"/>
+      <c r="B24" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="43">
+        <v>0</v>
+      </c>
+      <c r="E24" s="43">
+        <v>0</v>
+      </c>
+      <c r="F24" s="43">
+        <v>0</v>
+      </c>
+      <c r="G24" s="43">
+        <v>-1</v>
+      </c>
+      <c r="H24" s="43">
+        <v>0</v>
+      </c>
+      <c r="I24" s="43">
+        <v>0</v>
+      </c>
+      <c r="J24" s="43">
+        <v>0</v>
+      </c>
+      <c r="K24" s="42"/>
+      <c r="L24" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="M24" s="43">
+        <v>0</v>
+      </c>
+      <c r="N24" s="43">
+        <v>0</v>
+      </c>
+      <c r="O24" s="43">
+        <v>0</v>
+      </c>
+      <c r="P24" s="43">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="43">
+        <v>0</v>
+      </c>
+      <c r="R24" s="43">
+        <v>0</v>
+      </c>
+      <c r="S24" s="43">
+        <v>0</v>
+      </c>
+      <c r="T24" s="42"/>
+      <c r="U24" s="48"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25" s="48"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" s="43">
+        <v>0</v>
+      </c>
+      <c r="E25" s="43">
+        <v>0</v>
+      </c>
+      <c r="F25" s="43">
+        <v>0</v>
+      </c>
+      <c r="G25" s="43">
+        <v>0</v>
+      </c>
+      <c r="H25" s="43">
+        <v>0</v>
+      </c>
+      <c r="I25" s="43">
+        <v>0</v>
+      </c>
+      <c r="J25" s="43">
+        <v>1.5</v>
+      </c>
+      <c r="K25" s="42"/>
+      <c r="L25" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="M25" s="43">
+        <v>0</v>
+      </c>
+      <c r="N25" s="43">
+        <v>0</v>
+      </c>
+      <c r="O25" s="43">
+        <v>0</v>
+      </c>
+      <c r="P25" s="43">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="43">
+        <v>0</v>
+      </c>
+      <c r="R25" s="43">
+        <v>0</v>
+      </c>
+      <c r="S25" s="43">
+        <v>0</v>
+      </c>
+      <c r="T25" s="42"/>
+      <c r="U25" s="48"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A26" s="48"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" s="45">
+        <v>0</v>
+      </c>
+      <c r="E26" s="45">
+        <v>-1</v>
+      </c>
+      <c r="F26" s="45">
+        <v>0</v>
+      </c>
+      <c r="G26" s="45">
+        <v>0</v>
+      </c>
+      <c r="H26" s="45">
+        <v>0</v>
+      </c>
+      <c r="I26" s="45">
+        <v>0</v>
+      </c>
+      <c r="J26" s="45">
+        <v>0</v>
+      </c>
+      <c r="K26" s="39"/>
+      <c r="L26" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="M26" s="45">
+        <v>0</v>
+      </c>
+      <c r="N26" s="45">
+        <v>0</v>
+      </c>
+      <c r="O26" s="45">
+        <v>0</v>
+      </c>
+      <c r="P26" s="45">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="45">
+        <v>0</v>
+      </c>
+      <c r="R26" s="45">
+        <v>0</v>
+      </c>
+      <c r="S26" s="45">
+        <v>0</v>
+      </c>
+      <c r="T26" s="39"/>
+      <c r="U26" s="48"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A27" s="48"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="48"/>
+      <c r="L27" s="48"/>
+      <c r="M27" s="49"/>
+      <c r="N27" s="49"/>
+      <c r="O27" s="49"/>
+      <c r="P27" s="49"/>
+      <c r="Q27" s="49"/>
+      <c r="R27" s="49"/>
+      <c r="S27" s="49"/>
+      <c r="T27" s="48"/>
+      <c r="U27" s="48"/>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="38"/>
+      <c r="M32" s="38"/>
+      <c r="N32" s="38"/>
+      <c r="O32" s="38"/>
+      <c r="P32" s="38"/>
+      <c r="Q32" s="38"/>
+      <c r="R32" s="38"/>
+      <c r="S32" s="38"/>
+    </row>
+    <row r="33" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D33" s="38"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="38"/>
+      <c r="J33" s="38"/>
+      <c r="M33" s="38"/>
+      <c r="N33" s="38"/>
+      <c r="O33" s="38"/>
+      <c r="P33" s="38"/>
+      <c r="Q33" s="38"/>
+      <c r="R33" s="38"/>
+      <c r="S33" s="38"/>
+    </row>
+    <row r="34" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D34" s="38"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="38"/>
+      <c r="H34" s="38"/>
+      <c r="I34" s="38"/>
+      <c r="J34" s="38"/>
+      <c r="M34" s="38"/>
+      <c r="N34" s="38"/>
+      <c r="O34" s="38"/>
+      <c r="P34" s="38"/>
+      <c r="Q34" s="38"/>
+      <c r="R34" s="38"/>
+      <c r="S34" s="38"/>
+    </row>
+    <row r="35" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D35" s="38"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="38"/>
+      <c r="J35" s="38"/>
+      <c r="M35" s="38"/>
+      <c r="N35" s="38"/>
+      <c r="O35" s="38"/>
+      <c r="P35" s="38"/>
+      <c r="Q35" s="38"/>
+      <c r="R35" s="38"/>
+      <c r="S35" s="38"/>
+    </row>
+    <row r="36" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D36" s="38"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="38"/>
+      <c r="I36" s="38"/>
+      <c r="J36" s="38"/>
+      <c r="M36" s="38"/>
+      <c r="N36" s="38"/>
+      <c r="O36" s="38"/>
+      <c r="P36" s="38"/>
+      <c r="Q36" s="38"/>
+      <c r="R36" s="38"/>
+      <c r="S36" s="38"/>
+    </row>
+    <row r="37" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D37" s="38"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="38"/>
+      <c r="J37" s="38"/>
+      <c r="M37" s="38"/>
+      <c r="N37" s="38"/>
+      <c r="O37" s="38"/>
+      <c r="P37" s="38"/>
+      <c r="Q37" s="38"/>
+      <c r="R37" s="38"/>
+      <c r="S37" s="38"/>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:J2"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:S2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C2"/>
+  <dimension ref="B2:L28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="10" width="10.7109375" customWidth="1"/>
+    <col min="11" max="11" width="34.42578125" customWidth="1"/>
+    <col min="12" max="12" width="35.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B2" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="35"/>
+      <c r="D2" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="L2" s="35" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="36">
+        <v>-0.05</v>
+      </c>
+      <c r="E4" s="36">
+        <v>0</v>
+      </c>
+      <c r="F4" s="36">
+        <v>0</v>
+      </c>
+      <c r="G4" s="36">
+        <v>0</v>
+      </c>
+      <c r="H4" s="36">
+        <v>0</v>
+      </c>
+      <c r="I4" s="36">
+        <v>0</v>
+      </c>
+      <c r="J4" s="36">
+        <v>-0.5</v>
+      </c>
+      <c r="K4" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="L4" s="16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="36">
+        <v>-0.15</v>
+      </c>
+      <c r="E5" s="36">
+        <v>0</v>
+      </c>
+      <c r="F5" s="36">
+        <v>0</v>
+      </c>
+      <c r="G5" s="36">
+        <v>0</v>
+      </c>
+      <c r="H5" s="36">
+        <v>0</v>
+      </c>
+      <c r="I5" s="36">
+        <v>0</v>
+      </c>
+      <c r="J5" s="36">
+        <v>-1</v>
+      </c>
+      <c r="K5" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="L5" s="16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="L6" s="16"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="36">
+        <v>0</v>
+      </c>
+      <c r="E7" s="36">
+        <v>-0.3</v>
+      </c>
+      <c r="F7" s="36">
+        <v>-0.05</v>
+      </c>
+      <c r="G7" s="36">
+        <v>0</v>
+      </c>
+      <c r="H7" s="36">
+        <v>0</v>
+      </c>
+      <c r="I7" s="36">
+        <v>0</v>
+      </c>
+      <c r="J7" s="36">
+        <v>0</v>
+      </c>
+      <c r="L7" s="16"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="36">
+        <v>0</v>
+      </c>
+      <c r="E8" s="36">
+        <v>-0.1</v>
+      </c>
+      <c r="F8" s="36">
+        <v>-0.3</v>
+      </c>
+      <c r="G8" s="36">
+        <v>0</v>
+      </c>
+      <c r="H8" s="36">
+        <v>0</v>
+      </c>
+      <c r="I8" s="36">
+        <v>0</v>
+      </c>
+      <c r="J8" s="36">
+        <v>0</v>
+      </c>
+      <c r="L8" s="16"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="L9" s="16"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="36">
+        <v>0</v>
+      </c>
+      <c r="E10" s="36">
+        <v>-0.1</v>
+      </c>
+      <c r="F10" s="36">
+        <v>-0.05</v>
+      </c>
+      <c r="G10" s="36">
+        <v>0</v>
+      </c>
+      <c r="H10" s="36">
+        <v>0</v>
+      </c>
+      <c r="I10" s="36">
+        <v>0</v>
+      </c>
+      <c r="J10" s="36">
+        <v>0</v>
+      </c>
+      <c r="L10" s="16"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="36">
+        <v>0</v>
+      </c>
+      <c r="E11" s="36">
+        <v>-0.05</v>
+      </c>
+      <c r="F11" s="36">
+        <v>-0.1</v>
+      </c>
+      <c r="G11" s="36">
+        <v>0</v>
+      </c>
+      <c r="H11" s="36">
+        <v>0</v>
+      </c>
+      <c r="I11" s="36">
+        <v>0</v>
+      </c>
+      <c r="J11" s="36">
+        <v>0</v>
+      </c>
+      <c r="L11" s="16"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="36">
+        <v>0</v>
+      </c>
+      <c r="E12" s="36">
+        <v>-0.05</v>
+      </c>
+      <c r="F12" s="36">
+        <v>-0.05</v>
+      </c>
+      <c r="G12" s="36">
+        <v>0</v>
+      </c>
+      <c r="H12" s="36">
+        <v>0</v>
+      </c>
+      <c r="I12" s="36">
+        <v>0</v>
+      </c>
+      <c r="J12" s="36">
+        <v>0</v>
+      </c>
+      <c r="L12" s="16"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="L13" s="16"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="17"/>
+      <c r="D14" s="36">
+        <v>-0.6</v>
+      </c>
+      <c r="E14" s="36">
+        <v>0</v>
+      </c>
+      <c r="F14" s="36">
+        <v>0</v>
+      </c>
+      <c r="G14" s="36">
+        <v>0</v>
+      </c>
+      <c r="H14" s="36">
+        <v>0</v>
+      </c>
+      <c r="I14" s="36">
+        <v>0</v>
+      </c>
+      <c r="J14" s="36">
+        <v>0</v>
+      </c>
+      <c r="K14" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="L14" s="16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+    </row>
+    <row r="17" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+    </row>
+    <row r="18" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+    </row>
+    <row r="19" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+    </row>
+    <row r="20" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+    </row>
+    <row r="21" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+    </row>
+    <row r="22" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
+    </row>
+    <row r="23" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+    </row>
+    <row r="24" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+    </row>
+    <row r="25" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
+    </row>
+    <row r="26" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="36"/>
+    </row>
+    <row r="27" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
+    </row>
+    <row r="28" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <mergeCells count="5">
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:J2"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="B14:C14"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Дизайнерская документация/Медицина.xlsx
+++ b/Дизайнерская документация/Медицина.xlsx
@@ -44,9 +44,6 @@
     <t>Влияет на</t>
   </si>
   <si>
-    <t>Все остальные параметы</t>
-  </si>
-  <si>
     <t>Скорость передвижения</t>
   </si>
   <si>
@@ -59,9 +56,6 @@
     <t>Параметр здоровья</t>
   </si>
   <si>
-    <t>Основные парасеты здоровья</t>
-  </si>
-  <si>
     <t>Эффект при нулевом значении</t>
   </si>
   <si>
@@ -80,9 +74,6 @@
     <t>Качество принимаемых игроком звуков</t>
   </si>
   <si>
-    <t>Доролнительные параметры</t>
-  </si>
-  <si>
     <t>Травма</t>
   </si>
   <si>
@@ -158,21 +149,12 @@
     <t xml:space="preserve">Перелом руки </t>
   </si>
   <si>
-    <t>Медикомент</t>
-  </si>
-  <si>
-    <t>Обезбаливающие</t>
-  </si>
-  <si>
     <t>среднее</t>
   </si>
   <si>
     <t>сильное</t>
   </si>
   <si>
-    <t>наркотческая зависимость (10%)</t>
-  </si>
-  <si>
     <t>Время действия</t>
   </si>
   <si>
@@ -201,9 +183,6 @@
   </si>
   <si>
     <t>2 мин</t>
-  </si>
-  <si>
-    <t>наркотческая зависимость (20%)</t>
   </si>
   <si>
     <t>Шина</t>
@@ -246,9 +225,6 @@
     <t>Кровопотеря (Прогрес.)</t>
   </si>
   <si>
-    <t>Бинтование</t>
-  </si>
-  <si>
     <t>0-50%</t>
   </si>
   <si>
@@ -274,9 +250,6 @@
   </si>
   <si>
     <t>% ** 1,1</t>
-  </si>
-  <si>
-    <t>Препарат сзвязывания близких тканей</t>
   </si>
   <si>
     <t>Переливание крови, 
@@ -289,9 +262,6 @@
     <t>8 мин</t>
   </si>
   <si>
-    <t>наркотческая зависимость (40%)</t>
-  </si>
-  <si>
     <t>Бинт</t>
   </si>
   <si>
@@ -313,9 +283,6 @@
     <t>Интаксикатор, мощный интаксикатор</t>
   </si>
   <si>
-    <t>Бинтование, Препарат сзвязывания близких тканей, самостоятельное заживление (10% в мин)</t>
-  </si>
-  <si>
     <t>40 сек</t>
   </si>
   <si>
@@ -344,6 +311,39 @@
   </si>
   <si>
     <t>Снимает только 10% кровопотери</t>
+  </si>
+  <si>
+    <t>Основные параметры здоровья</t>
+  </si>
+  <si>
+    <t>Все остальные параметры</t>
+  </si>
+  <si>
+    <t>Дополнительные параметры</t>
+  </si>
+  <si>
+    <t>Бинтованные</t>
+  </si>
+  <si>
+    <t>Препарат связывания близких тканей</t>
+  </si>
+  <si>
+    <t>Бинтованные, Препарат связывания близких тканей, самостоятельное заживление (10% в мин)</t>
+  </si>
+  <si>
+    <t>Медикамент</t>
+  </si>
+  <si>
+    <t>Обезболивающие</t>
+  </si>
+  <si>
+    <t>наркотическая зависимость (10%)</t>
+  </si>
+  <si>
+    <t>наркотическая зависимость (40%)</t>
+  </si>
+  <si>
+    <t>наркотическая зависимость (20%)</t>
   </si>
 </sst>
 </file>
@@ -883,6 +883,42 @@
     <xf numFmtId="9" fontId="0" fillId="11" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -916,6 +952,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -931,58 +979,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1269,7 +1269,7 @@
   <dimension ref="A2:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1291,27 +1291,27 @@
     <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="21"/>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F3" s="21"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="21"/>
-      <c r="B4" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="40"/>
+      <c r="B4" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="52"/>
       <c r="F4" s="21"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1320,10 +1320,10 @@
         <v>0</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>7</v>
+        <v>97</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E5" s="19"/>
       <c r="F5" s="21"/>
@@ -1334,10 +1334,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E6" s="16"/>
       <c r="F6" s="21"/>
@@ -1348,22 +1348,22 @@
         <v>2</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="21"/>
     </row>
     <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="21"/>
-      <c r="B8" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="43"/>
+      <c r="B8" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="55"/>
       <c r="F8" s="21"/>
     </row>
     <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="20" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E9" s="19"/>
       <c r="F9" s="21"/>
@@ -1384,10 +1384,10 @@
         <v>3</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E10" s="16"/>
       <c r="F10" s="21"/>
@@ -1398,53 +1398,53 @@
         <v>5</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E11" s="18"/>
       <c r="F11" s="21"/>
     </row>
     <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="21"/>
-      <c r="B12" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="46"/>
+      <c r="B12" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="58"/>
       <c r="F12" s="21"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="21"/>
       <c r="B13" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F13" s="21"/>
     </row>
     <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="21"/>
       <c r="B14" s="15" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C14" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="17" t="s">
-        <v>28</v>
-      </c>
       <c r="E14" s="14" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F14" s="21"/>
     </row>
@@ -1470,8 +1470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V51"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1514,46 +1514,46 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="22"/>
-      <c r="B2" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="56" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="55" t="s">
+      <c r="B2" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="63"/>
+      <c r="D2" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="63" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="64" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="U2" s="62" t="s">
         <v>29</v>
-      </c>
-      <c r="L2" s="55" t="s">
-        <v>30</v>
-      </c>
-      <c r="M2" s="56" t="s">
-        <v>31</v>
-      </c>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="56"/>
-      <c r="R2" s="56"/>
-      <c r="S2" s="56"/>
-      <c r="T2" s="51" t="s">
-        <v>79</v>
-      </c>
-      <c r="U2" s="54" t="s">
-        <v>32</v>
       </c>
       <c r="V2" s="22"/>
     </row>
     <row r="3" spans="1:22" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="22"/>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
       <c r="D3" s="34" t="s">
         <v>0</v>
       </c>
@@ -1573,10 +1573,10 @@
         <v>5</v>
       </c>
       <c r="J3" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
+        <v>20</v>
+      </c>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
       <c r="M3" s="34" t="s">
         <v>0</v>
       </c>
@@ -1596,19 +1596,19 @@
         <v>5</v>
       </c>
       <c r="S3" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="T3" s="52"/>
-      <c r="U3" s="54"/>
+        <v>20</v>
+      </c>
+      <c r="T3" s="68"/>
+      <c r="U3" s="62"/>
       <c r="V3" s="22"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="22"/>
-      <c r="B4" s="65" t="s">
-        <v>36</v>
+      <c r="B4" s="61" t="s">
+        <v>33</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D4" s="24">
         <v>0</v>
@@ -1632,8 +1632,8 @@
         <v>0.1</v>
       </c>
       <c r="K4" s="23"/>
-      <c r="L4" s="53" t="s">
-        <v>40</v>
+      <c r="L4" s="69" t="s">
+        <v>37</v>
       </c>
       <c r="M4" s="24">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0.01</v>
       </c>
       <c r="T4" s="23" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="U4" s="23"/>
       <c r="V4" s="22"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="22"/>
-      <c r="B5" s="47"/>
+      <c r="B5" s="59"/>
       <c r="C5" s="25" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D5" s="26">
         <v>0</v>
@@ -1690,7 +1690,7 @@
         <v>0.3</v>
       </c>
       <c r="K5" s="25"/>
-      <c r="L5" s="49"/>
+      <c r="L5" s="65"/>
       <c r="M5" s="26">
         <v>0</v>
       </c>
@@ -1713,16 +1713,16 @@
         <v>0.05</v>
       </c>
       <c r="T5" s="25" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="U5" s="25"/>
       <c r="V5" s="22"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="22"/>
-      <c r="B6" s="48"/>
+      <c r="B6" s="60"/>
       <c r="C6" s="27" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D6" s="28">
         <v>0</v>
@@ -1746,7 +1746,7 @@
         <v>0.5</v>
       </c>
       <c r="K6" s="27"/>
-      <c r="L6" s="50"/>
+      <c r="L6" s="66"/>
       <c r="M6" s="28">
         <v>0</v>
       </c>
@@ -1769,7 +1769,7 @@
         <v>0.1</v>
       </c>
       <c r="T6" s="27" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="U6" s="27"/>
       <c r="V6" s="22"/>
@@ -1800,11 +1800,11 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="22"/>
-      <c r="B8" s="47" t="s">
-        <v>37</v>
+      <c r="B8" s="59" t="s">
+        <v>34</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D8" s="26">
         <v>0</v>
@@ -1828,8 +1828,8 @@
         <v>0.1</v>
       </c>
       <c r="K8" s="25"/>
-      <c r="L8" s="49" t="s">
-        <v>40</v>
+      <c r="L8" s="65" t="s">
+        <v>37</v>
       </c>
       <c r="M8" s="26">
         <v>0</v>
@@ -1853,16 +1853,16 @@
         <v>0.01</v>
       </c>
       <c r="T8" s="23" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="U8" s="25"/>
       <c r="V8" s="22"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="22"/>
-      <c r="B9" s="47"/>
+      <c r="B9" s="59"/>
       <c r="C9" s="25" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D9" s="26">
         <v>0</v>
@@ -1886,7 +1886,7 @@
         <v>0.3</v>
       </c>
       <c r="K9" s="25"/>
-      <c r="L9" s="49"/>
+      <c r="L9" s="65"/>
       <c r="M9" s="26">
         <v>0</v>
       </c>
@@ -1909,16 +1909,16 @@
         <v>0.05</v>
       </c>
       <c r="T9" s="25" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="U9" s="25"/>
       <c r="V9" s="22"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="22"/>
-      <c r="B10" s="48"/>
+      <c r="B10" s="60"/>
       <c r="C10" s="27" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D10" s="28">
         <v>0</v>
@@ -1942,7 +1942,7 @@
         <v>0.5</v>
       </c>
       <c r="K10" s="27"/>
-      <c r="L10" s="50"/>
+      <c r="L10" s="66"/>
       <c r="M10" s="28">
         <v>0</v>
       </c>
@@ -1965,7 +1965,7 @@
         <v>0.1</v>
       </c>
       <c r="T10" s="27" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="U10" s="27"/>
       <c r="V10" s="22"/>
@@ -1996,11 +1996,11 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="22"/>
-      <c r="B12" s="47" t="s">
-        <v>38</v>
+      <c r="B12" s="59" t="s">
+        <v>35</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D12" s="26">
         <v>0</v>
@@ -2024,8 +2024,8 @@
         <v>0.1</v>
       </c>
       <c r="K12" s="25"/>
-      <c r="L12" s="49" t="s">
-        <v>40</v>
+      <c r="L12" s="65" t="s">
+        <v>37</v>
       </c>
       <c r="M12" s="26">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0.01</v>
       </c>
       <c r="T12" s="23" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="U12" s="25"/>
       <c r="V12" s="22"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="22"/>
-      <c r="B13" s="47"/>
+      <c r="B13" s="59"/>
       <c r="C13" s="25" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D13" s="26">
         <v>0</v>
@@ -2082,7 +2082,7 @@
         <v>0.3</v>
       </c>
       <c r="K13" s="25"/>
-      <c r="L13" s="49"/>
+      <c r="L13" s="65"/>
       <c r="M13" s="26">
         <v>0</v>
       </c>
@@ -2105,16 +2105,16 @@
         <v>0.05</v>
       </c>
       <c r="T13" s="25" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="U13" s="25"/>
       <c r="V13" s="22"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="22"/>
-      <c r="B14" s="48"/>
+      <c r="B14" s="60"/>
       <c r="C14" s="27" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D14" s="28">
         <v>0</v>
@@ -2138,7 +2138,7 @@
         <v>0.5</v>
       </c>
       <c r="K14" s="27"/>
-      <c r="L14" s="50"/>
+      <c r="L14" s="66"/>
       <c r="M14" s="28">
         <v>0</v>
       </c>
@@ -2161,7 +2161,7 @@
         <v>0.1</v>
       </c>
       <c r="T14" s="27" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="U14" s="27"/>
       <c r="V14" s="22"/>
@@ -2192,11 +2192,11 @@
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="22"/>
-      <c r="B16" s="47" t="s">
-        <v>39</v>
+      <c r="B16" s="59" t="s">
+        <v>36</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D16" s="26">
         <v>0</v>
@@ -2220,8 +2220,8 @@
         <v>0.8</v>
       </c>
       <c r="K16" s="25"/>
-      <c r="L16" s="49" t="s">
-        <v>41</v>
+      <c r="L16" s="65" t="s">
+        <v>38</v>
       </c>
       <c r="M16" s="26">
         <v>0</v>
@@ -2245,16 +2245,16 @@
         <v>0.1</v>
       </c>
       <c r="T16" s="25" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="U16" s="25"/>
       <c r="V16" s="22"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="22"/>
-      <c r="B17" s="48"/>
+      <c r="B17" s="60"/>
       <c r="C17" s="27" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D17" s="28">
         <v>0</v>
@@ -2278,9 +2278,9 @@
         <v>0.8</v>
       </c>
       <c r="K17" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="L17" s="50"/>
+        <v>93</v>
+      </c>
+      <c r="L17" s="66"/>
       <c r="M17" s="28">
         <v>0</v>
       </c>
@@ -2303,7 +2303,7 @@
         <v>0.1</v>
       </c>
       <c r="T17" s="27" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="U17" s="27"/>
       <c r="V17" s="22"/>
@@ -2334,11 +2334,11 @@
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="22"/>
-      <c r="B19" s="47" t="s">
-        <v>44</v>
+      <c r="B19" s="59" t="s">
+        <v>41</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D19" s="26">
         <v>0</v>
@@ -2362,8 +2362,8 @@
         <v>0.8</v>
       </c>
       <c r="K19" s="25"/>
-      <c r="L19" s="49" t="s">
-        <v>41</v>
+      <c r="L19" s="65" t="s">
+        <v>38</v>
       </c>
       <c r="M19" s="26">
         <v>0</v>
@@ -2387,16 +2387,16 @@
         <v>0.1</v>
       </c>
       <c r="T19" s="25" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="U19" s="25"/>
       <c r="V19" s="22"/>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="22"/>
-      <c r="B20" s="48"/>
+      <c r="B20" s="60"/>
       <c r="C20" s="27" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D20" s="28">
         <v>0</v>
@@ -2420,9 +2420,9 @@
         <v>0.8</v>
       </c>
       <c r="K20" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="L20" s="50"/>
+        <v>93</v>
+      </c>
+      <c r="L20" s="66"/>
       <c r="M20" s="28">
         <v>0</v>
       </c>
@@ -2445,7 +2445,7 @@
         <v>0.1</v>
       </c>
       <c r="T20" s="27" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="U20" s="27"/>
       <c r="V20" s="22"/>
@@ -2477,7 +2477,7 @@
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="22"/>
       <c r="B22" s="27" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C22" s="27"/>
       <c r="D22" s="28">
@@ -2503,7 +2503,7 @@
       </c>
       <c r="K22" s="27"/>
       <c r="L22" s="33" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="M22" s="28">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="27" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="U22" s="27"/>
       <c r="V22" s="22"/>
@@ -2558,11 +2558,11 @@
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="22"/>
-      <c r="B24" s="47" t="s">
-        <v>77</v>
+      <c r="B24" s="59" t="s">
+        <v>69</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D24" s="26">
         <v>0</v>
@@ -2585,11 +2585,11 @@
       <c r="J24" s="26">
         <v>0.1</v>
       </c>
-      <c r="K24" s="47" t="s">
-        <v>78</v>
+      <c r="K24" s="59" t="s">
+        <v>70</v>
       </c>
       <c r="L24" s="32" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="M24" s="26">
         <v>0</v>
@@ -2613,16 +2613,16 @@
         <v>0.01</v>
       </c>
       <c r="T24" s="25" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="U24" s="25"/>
       <c r="V24" s="22"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="22"/>
-      <c r="B25" s="48"/>
+      <c r="B25" s="60"/>
       <c r="C25" s="27" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D25" s="28">
         <v>0</v>
@@ -2645,9 +2645,9 @@
       <c r="J25" s="28">
         <v>0.3</v>
       </c>
-      <c r="K25" s="48"/>
+      <c r="K25" s="60"/>
       <c r="L25" s="33" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="M25" s="28">
         <v>0</v>
@@ -2671,7 +2671,7 @@
         <v>0.05</v>
       </c>
       <c r="T25" s="27" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="U25" s="27"/>
       <c r="V25" s="22"/>
@@ -2702,11 +2702,11 @@
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="22"/>
-      <c r="B27" s="47" t="s">
-        <v>70</v>
+      <c r="B27" s="59" t="s">
+        <v>63</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D27" s="26">
         <v>0</v>
@@ -2729,11 +2729,11 @@
       <c r="J27" s="26">
         <v>0</v>
       </c>
-      <c r="K27" s="47" t="s">
-        <v>73</v>
-      </c>
-      <c r="L27" s="49" t="s">
-        <v>96</v>
+      <c r="K27" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="L27" s="65" t="s">
+        <v>101</v>
       </c>
       <c r="M27" s="26">
         <v>0</v>
@@ -2757,16 +2757,16 @@
         <v>0</v>
       </c>
       <c r="T27" s="25" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="U27" s="25"/>
       <c r="V27" s="22"/>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="22"/>
-      <c r="B28" s="48"/>
+      <c r="B28" s="60"/>
       <c r="C28" s="27" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D28" s="28">
         <v>0</v>
@@ -2789,8 +2789,8 @@
       <c r="J28" s="28">
         <v>0</v>
       </c>
-      <c r="K28" s="48"/>
-      <c r="L28" s="50"/>
+      <c r="K28" s="60"/>
+      <c r="L28" s="66"/>
       <c r="M28" s="28">
         <v>0</v>
       </c>
@@ -2813,7 +2813,7 @@
         <v>0</v>
       </c>
       <c r="T28" s="27" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="U28" s="27"/>
       <c r="V28" s="22"/>
@@ -2844,15 +2844,15 @@
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="22"/>
-      <c r="B30" s="47" t="s">
-        <v>72</v>
+      <c r="B30" s="59" t="s">
+        <v>65</v>
       </c>
       <c r="C30" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="D30" s="36" t="s">
-        <v>83</v>
-      </c>
       <c r="E30" s="26">
         <v>0</v>
       </c>
@@ -2872,8 +2872,8 @@
         <v>0</v>
       </c>
       <c r="K30" s="25"/>
-      <c r="L30" s="49" t="s">
-        <v>85</v>
+      <c r="L30" s="65" t="s">
+        <v>76</v>
       </c>
       <c r="M30" s="26">
         <v>-0.1</v>
@@ -2897,19 +2897,19 @@
         <v>0</v>
       </c>
       <c r="T30" s="25" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="U30" s="25"/>
       <c r="V30" s="22"/>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="22"/>
-      <c r="B31" s="48"/>
+      <c r="B31" s="60"/>
       <c r="C31" s="27" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D31" s="37" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E31" s="28">
         <v>0</v>
@@ -2930,9 +2930,9 @@
         <v>0</v>
       </c>
       <c r="K31" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="L31" s="50"/>
+        <v>92</v>
+      </c>
+      <c r="L31" s="66"/>
       <c r="M31" s="29">
         <v>-0.3</v>
       </c>
@@ -2955,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="T31" s="27" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="U31" s="27"/>
       <c r="V31" s="22"/>
@@ -2987,7 +2987,7 @@
     <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="22"/>
       <c r="B33" s="27" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C33" s="27"/>
       <c r="D33" s="28">
@@ -3012,10 +3012,10 @@
         <v>0.4</v>
       </c>
       <c r="K33" s="27" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="L33" s="33" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="M33" s="28">
         <v>0</v>
@@ -3039,7 +3039,7 @@
         <v>0</v>
       </c>
       <c r="T33" s="27" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="U33" s="27"/>
       <c r="V33" s="22"/>
@@ -3070,11 +3070,11 @@
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" s="22"/>
-      <c r="B35" s="47" t="s">
-        <v>90</v>
+      <c r="B35" s="59" t="s">
+        <v>80</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="D35" s="26">
         <v>0</v>
@@ -3099,7 +3099,7 @@
       </c>
       <c r="K35" s="25"/>
       <c r="L35" s="32" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="M35" s="26">
         <v>0</v>
@@ -3123,16 +3123,16 @@
         <v>0</v>
       </c>
       <c r="T35" s="25" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="U35" s="25"/>
       <c r="V35" s="22"/>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" s="22"/>
-      <c r="B36" s="48"/>
+      <c r="B36" s="60"/>
       <c r="C36" s="27" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D36" s="28">
         <v>-0.2</v>
@@ -3157,7 +3157,7 @@
       </c>
       <c r="K36" s="27"/>
       <c r="L36" s="33" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="M36" s="26">
         <v>0</v>
@@ -3181,7 +3181,7 @@
         <v>0</v>
       </c>
       <c r="T36" s="27" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="U36" s="27"/>
       <c r="V36" s="22"/>
@@ -3212,11 +3212,11 @@
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" s="22"/>
-      <c r="B38" s="47" t="s">
-        <v>62</v>
+      <c r="B38" s="59" t="s">
+        <v>55</v>
       </c>
       <c r="C38" s="25" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D38" s="26">
         <v>0</v>
@@ -3241,7 +3241,7 @@
       </c>
       <c r="K38" s="25"/>
       <c r="L38" s="32" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="M38" s="26">
         <v>0</v>
@@ -3265,16 +3265,16 @@
         <v>0</v>
       </c>
       <c r="T38" s="25" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="U38" s="25"/>
       <c r="V38" s="22"/>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" s="22"/>
-      <c r="B39" s="47"/>
+      <c r="B39" s="59"/>
       <c r="C39" s="25" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D39" s="26">
         <v>0</v>
@@ -3299,7 +3299,7 @@
       </c>
       <c r="K39" s="25"/>
       <c r="L39" s="32" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="M39" s="26">
         <v>0</v>
@@ -3323,16 +3323,16 @@
         <v>0</v>
       </c>
       <c r="T39" s="25" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="U39" s="25"/>
       <c r="V39" s="22"/>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" s="22"/>
-      <c r="B40" s="48"/>
+      <c r="B40" s="60"/>
       <c r="C40" s="27" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D40" s="28">
         <v>0</v>
@@ -3357,7 +3357,7 @@
       </c>
       <c r="K40" s="27"/>
       <c r="L40" s="33" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="M40" s="28">
         <v>0</v>
@@ -3381,7 +3381,7 @@
         <v>0</v>
       </c>
       <c r="T40" s="27" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="U40" s="27"/>
       <c r="V40" s="22"/>
@@ -3508,22 +3508,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:J2"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:S2"/>
     <mergeCell ref="K27:K28"/>
     <mergeCell ref="L27:L28"/>
     <mergeCell ref="K24:K25"/>
@@ -3534,6 +3518,22 @@
     <mergeCell ref="L4:L6"/>
     <mergeCell ref="L16:L17"/>
     <mergeCell ref="L19:L20"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:J2"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:S2"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B38:B40"/>
   </mergeCells>
   <conditionalFormatting sqref="D37:I40 D35:J36 D4:I34">
     <cfRule type="colorScale" priority="5">
@@ -3593,7 +3593,7 @@
   <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3624,31 +3624,31 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="22"/>
-      <c r="B2" s="55" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="56" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="55" t="s">
-        <v>50</v>
-      </c>
-      <c r="L2" s="55" t="s">
-        <v>29</v>
+      <c r="B2" s="63" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="63"/>
+      <c r="D2" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" s="63" t="s">
+        <v>26</v>
       </c>
       <c r="M2" s="22"/>
     </row>
     <row r="3" spans="1:13" ht="55.5" x14ac:dyDescent="0.25">
       <c r="A3" s="22"/>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
       <c r="D3" s="34" t="s">
         <v>0</v>
       </c>
@@ -3668,19 +3668,19 @@
         <v>5</v>
       </c>
       <c r="J3" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
+        <v>20</v>
+      </c>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
       <c r="M3" s="22"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="22"/>
-      <c r="B4" s="68" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="57" t="s">
-        <v>47</v>
+      <c r="B4" s="46" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>42</v>
       </c>
       <c r="D4" s="24">
         <v>-0.05</v>
@@ -3703,19 +3703,19 @@
       <c r="J4" s="24">
         <v>-0.5</v>
       </c>
-      <c r="K4" s="57" t="s">
-        <v>59</v>
-      </c>
-      <c r="L4" s="62" t="s">
-        <v>49</v>
+      <c r="K4" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="L4" s="41" t="s">
+        <v>104</v>
       </c>
       <c r="M4" s="22"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="22"/>
-      <c r="B5" s="69"/>
-      <c r="C5" s="58" t="s">
-        <v>48</v>
+      <c r="B5" s="47"/>
+      <c r="C5" s="39" t="s">
+        <v>43</v>
       </c>
       <c r="D5" s="28">
         <v>-0.15</v>
@@ -3738,18 +3738,18 @@
       <c r="J5" s="28">
         <v>-1</v>
       </c>
-      <c r="K5" s="58" t="s">
-        <v>55</v>
-      </c>
-      <c r="L5" s="63" t="s">
-        <v>88</v>
+      <c r="K5" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="L5" s="42" t="s">
+        <v>105</v>
       </c>
       <c r="M5" s="22"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="22"/>
-      <c r="B6" s="70"/>
-      <c r="C6" s="59"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="40"/>
       <c r="D6" s="26"/>
       <c r="E6" s="26"/>
       <c r="F6" s="26"/>
@@ -3757,17 +3757,17 @@
       <c r="H6" s="26"/>
       <c r="I6" s="26"/>
       <c r="J6" s="26"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="64"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="43"/>
       <c r="M6" s="22"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="22"/>
-      <c r="B7" s="70" t="s">
-        <v>61</v>
-      </c>
-      <c r="C7" s="59" t="s">
-        <v>52</v>
+      <c r="B7" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>46</v>
       </c>
       <c r="D7" s="26">
         <v>0</v>
@@ -3790,17 +3790,17 @@
       <c r="J7" s="26">
         <v>0</v>
       </c>
-      <c r="K7" s="60" t="s">
-        <v>55</v>
-      </c>
-      <c r="L7" s="64"/>
+      <c r="K7" s="70" t="s">
+        <v>49</v>
+      </c>
+      <c r="L7" s="43"/>
       <c r="M7" s="22"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="22"/>
-      <c r="B8" s="69"/>
-      <c r="C8" s="58" t="s">
-        <v>53</v>
+      <c r="B8" s="47"/>
+      <c r="C8" s="39" t="s">
+        <v>47</v>
       </c>
       <c r="D8" s="28">
         <v>0</v>
@@ -3823,14 +3823,14 @@
       <c r="J8" s="28">
         <v>0</v>
       </c>
-      <c r="K8" s="61"/>
-      <c r="L8" s="63"/>
+      <c r="K8" s="71"/>
+      <c r="L8" s="42"/>
       <c r="M8" s="22"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="22"/>
-      <c r="B9" s="70"/>
-      <c r="C9" s="59"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="40"/>
       <c r="D9" s="26"/>
       <c r="E9" s="26"/>
       <c r="F9" s="26"/>
@@ -3838,17 +3838,17 @@
       <c r="H9" s="26"/>
       <c r="I9" s="26"/>
       <c r="J9" s="26"/>
-      <c r="K9" s="59"/>
-      <c r="L9" s="64"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="43"/>
       <c r="M9" s="22"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="22"/>
-      <c r="B10" s="70" t="s">
-        <v>89</v>
-      </c>
-      <c r="C10" s="59" t="s">
-        <v>52</v>
+      <c r="B10" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="40" t="s">
+        <v>46</v>
       </c>
       <c r="D10" s="26">
         <v>0</v>
@@ -3871,17 +3871,17 @@
       <c r="J10" s="26">
         <v>0</v>
       </c>
-      <c r="K10" s="60" t="s">
-        <v>86</v>
-      </c>
-      <c r="L10" s="64"/>
+      <c r="K10" s="70" t="s">
+        <v>77</v>
+      </c>
+      <c r="L10" s="43"/>
       <c r="M10" s="22"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="22"/>
-      <c r="B11" s="70"/>
-      <c r="C11" s="59" t="s">
-        <v>53</v>
+      <c r="B11" s="48"/>
+      <c r="C11" s="40" t="s">
+        <v>47</v>
       </c>
       <c r="D11" s="26">
         <v>0</v>
@@ -3904,15 +3904,15 @@
       <c r="J11" s="26">
         <v>0</v>
       </c>
-      <c r="K11" s="60"/>
-      <c r="L11" s="64"/>
+      <c r="K11" s="70"/>
+      <c r="L11" s="43"/>
       <c r="M11" s="22"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="22"/>
-      <c r="B12" s="69"/>
-      <c r="C12" s="58" t="s">
-        <v>54</v>
+      <c r="B12" s="47"/>
+      <c r="C12" s="39" t="s">
+        <v>48</v>
       </c>
       <c r="D12" s="28">
         <v>0</v>
@@ -3935,14 +3935,14 @@
       <c r="J12" s="28">
         <v>0</v>
       </c>
-      <c r="K12" s="61"/>
-      <c r="L12" s="63"/>
+      <c r="K12" s="71"/>
+      <c r="L12" s="42"/>
       <c r="M12" s="22"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="22"/>
-      <c r="B13" s="70"/>
-      <c r="C13" s="59"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="40"/>
       <c r="D13" s="26"/>
       <c r="E13" s="26"/>
       <c r="F13" s="26"/>
@@ -3950,17 +3950,17 @@
       <c r="H13" s="26"/>
       <c r="I13" s="26"/>
       <c r="J13" s="26"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="64"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="43"/>
       <c r="M13" s="22"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="22"/>
-      <c r="B14" s="70" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" s="59" t="s">
-        <v>52</v>
+      <c r="B14" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="40" t="s">
+        <v>46</v>
       </c>
       <c r="D14" s="26">
         <v>0</v>
@@ -3983,17 +3983,17 @@
       <c r="J14" s="26">
         <v>0</v>
       </c>
-      <c r="K14" s="60" t="s">
-        <v>86</v>
-      </c>
-      <c r="L14" s="64"/>
+      <c r="K14" s="70" t="s">
+        <v>77</v>
+      </c>
+      <c r="L14" s="43"/>
       <c r="M14" s="22"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="22"/>
-      <c r="B15" s="70"/>
-      <c r="C15" s="59" t="s">
-        <v>53</v>
+      <c r="B15" s="48"/>
+      <c r="C15" s="40" t="s">
+        <v>47</v>
       </c>
       <c r="D15" s="26">
         <v>0</v>
@@ -4016,15 +4016,15 @@
       <c r="J15" s="26">
         <v>0</v>
       </c>
-      <c r="K15" s="60"/>
-      <c r="L15" s="64"/>
+      <c r="K15" s="70"/>
+      <c r="L15" s="43"/>
       <c r="M15" s="22"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="22"/>
-      <c r="B16" s="69"/>
-      <c r="C16" s="58" t="s">
-        <v>54</v>
+      <c r="B16" s="47"/>
+      <c r="C16" s="39" t="s">
+        <v>48</v>
       </c>
       <c r="D16" s="28">
         <v>0</v>
@@ -4047,14 +4047,14 @@
       <c r="J16" s="28">
         <v>0</v>
       </c>
-      <c r="K16" s="61"/>
-      <c r="L16" s="63"/>
+      <c r="K16" s="71"/>
+      <c r="L16" s="42"/>
       <c r="M16" s="22"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="22"/>
-      <c r="B17" s="70"/>
-      <c r="C17" s="59"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="40"/>
       <c r="D17" s="26"/>
       <c r="E17" s="26"/>
       <c r="F17" s="26"/>
@@ -4062,16 +4062,16 @@
       <c r="H17" s="26"/>
       <c r="I17" s="26"/>
       <c r="J17" s="26"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="64"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="43"/>
       <c r="M17" s="22"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="22"/>
-      <c r="B18" s="69" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="58"/>
+      <c r="B18" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="39"/>
       <c r="D18" s="28">
         <v>-0.6</v>
       </c>
@@ -4093,18 +4093,18 @@
       <c r="J18" s="28">
         <v>0.1</v>
       </c>
-      <c r="K18" s="58" t="s">
-        <v>59</v>
-      </c>
-      <c r="L18" s="63" t="s">
-        <v>60</v>
+      <c r="K18" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="L18" s="42" t="s">
+        <v>106</v>
       </c>
       <c r="M18" s="22"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="22"/>
-      <c r="B19" s="70"/>
-      <c r="C19" s="59"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="40"/>
       <c r="D19" s="26"/>
       <c r="E19" s="26"/>
       <c r="F19" s="26"/>
@@ -4112,16 +4112,16 @@
       <c r="H19" s="26"/>
       <c r="I19" s="26"/>
       <c r="J19" s="26"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="64"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="43"/>
       <c r="M19" s="22"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="22"/>
-      <c r="B20" s="69" t="s">
-        <v>84</v>
-      </c>
-      <c r="C20" s="58"/>
+      <c r="B20" s="47" t="s">
+        <v>100</v>
+      </c>
+      <c r="C20" s="39"/>
       <c r="D20" s="28">
         <v>0</v>
       </c>
@@ -4143,16 +4143,16 @@
       <c r="J20" s="28">
         <v>0.8</v>
       </c>
-      <c r="K20" s="58" t="s">
-        <v>97</v>
-      </c>
-      <c r="L20" s="63"/>
+      <c r="K20" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="L20" s="42"/>
       <c r="M20" s="22"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="22"/>
-      <c r="B21" s="70"/>
-      <c r="C21" s="59"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="40"/>
       <c r="D21" s="26"/>
       <c r="E21" s="26"/>
       <c r="F21" s="26"/>
@@ -4160,16 +4160,16 @@
       <c r="H21" s="26"/>
       <c r="I21" s="26"/>
       <c r="J21" s="26"/>
-      <c r="K21" s="59"/>
-      <c r="L21" s="64"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="43"/>
       <c r="M21" s="22"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="22"/>
-      <c r="B22" s="70" t="s">
-        <v>99</v>
-      </c>
-      <c r="C22" s="59"/>
+      <c r="B22" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" s="40"/>
       <c r="D22" s="26">
         <v>0</v>
       </c>
@@ -4191,20 +4191,20 @@
       <c r="J22" s="26">
         <v>0</v>
       </c>
-      <c r="K22" s="59" t="s">
-        <v>71</v>
-      </c>
-      <c r="L22" s="64" t="s">
-        <v>101</v>
+      <c r="K22" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="L22" s="43" t="s">
+        <v>90</v>
       </c>
       <c r="M22" s="22"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="22"/>
-      <c r="B23" s="69" t="s">
-        <v>98</v>
-      </c>
-      <c r="C23" s="58"/>
+      <c r="B23" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" s="39"/>
       <c r="D23" s="28">
         <v>-0.05</v>
       </c>
@@ -4226,18 +4226,18 @@
       <c r="J23" s="28">
         <v>0</v>
       </c>
-      <c r="K23" s="58" t="s">
-        <v>59</v>
-      </c>
-      <c r="L23" s="63" t="s">
-        <v>106</v>
+      <c r="K23" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="L23" s="42" t="s">
+        <v>95</v>
       </c>
       <c r="M23" s="22"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="22"/>
-      <c r="B24" s="70"/>
-      <c r="C24" s="59"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="40"/>
       <c r="D24" s="26"/>
       <c r="E24" s="26"/>
       <c r="F24" s="26"/>
@@ -4245,14 +4245,14 @@
       <c r="H24" s="26"/>
       <c r="I24" s="26"/>
       <c r="J24" s="26"/>
-      <c r="K24" s="59"/>
-      <c r="L24" s="64"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="43"/>
       <c r="M24" s="22"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="22"/>
-      <c r="B25" s="69"/>
-      <c r="C25" s="58"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="39"/>
       <c r="D25" s="28"/>
       <c r="E25" s="28"/>
       <c r="F25" s="28"/>
@@ -4260,14 +4260,14 @@
       <c r="H25" s="28"/>
       <c r="I25" s="28"/>
       <c r="J25" s="28"/>
-      <c r="K25" s="58"/>
-      <c r="L25" s="63"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="42"/>
       <c r="M25" s="22"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="22"/>
-      <c r="B26" s="70"/>
-      <c r="C26" s="59"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="40"/>
       <c r="D26" s="26"/>
       <c r="E26" s="26"/>
       <c r="F26" s="26"/>
@@ -4275,16 +4275,16 @@
       <c r="H26" s="26"/>
       <c r="I26" s="26"/>
       <c r="J26" s="26"/>
-      <c r="K26" s="59"/>
-      <c r="L26" s="64"/>
+      <c r="K26" s="40"/>
+      <c r="L26" s="43"/>
       <c r="M26" s="22"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="22"/>
-      <c r="B27" s="66" t="s">
-        <v>93</v>
-      </c>
-      <c r="C27" s="59"/>
+      <c r="B27" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="40"/>
       <c r="D27" s="26">
         <v>-0.1</v>
       </c>
@@ -4306,18 +4306,18 @@
       <c r="J27" s="26">
         <v>0</v>
       </c>
-      <c r="K27" s="59" t="s">
-        <v>80</v>
-      </c>
-      <c r="L27" s="64"/>
+      <c r="K27" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="L27" s="43"/>
       <c r="M27" s="22"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="22"/>
-      <c r="B28" s="67" t="s">
-        <v>94</v>
-      </c>
-      <c r="C28" s="58"/>
+      <c r="B28" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" s="39"/>
       <c r="D28" s="28">
         <v>-1</v>
       </c>
@@ -4339,23 +4339,23 @@
       <c r="J28" s="28">
         <v>0.1</v>
       </c>
-      <c r="K28" s="58" t="s">
-        <v>80</v>
-      </c>
-      <c r="L28" s="63"/>
+      <c r="K28" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="L28" s="42"/>
       <c r="M28" s="22"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="22"/>
       <c r="B29" s="22"/>
       <c r="C29" s="22"/>
-      <c r="D29" s="71"/>
-      <c r="E29" s="71"/>
-      <c r="F29" s="71"/>
-      <c r="G29" s="71"/>
-      <c r="H29" s="71"/>
-      <c r="I29" s="71"/>
-      <c r="J29" s="71"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="49"/>
       <c r="K29" s="22"/>
       <c r="L29" s="22"/>
       <c r="M29" s="22"/>
@@ -4452,13 +4452,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="K14:K16"/>
+    <mergeCell ref="K10:K12"/>
     <mergeCell ref="B2:C3"/>
     <mergeCell ref="D2:J2"/>
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="K7:K8"/>
-    <mergeCell ref="K14:K16"/>
-    <mergeCell ref="K10:K12"/>
   </mergeCells>
   <conditionalFormatting sqref="D4:I9 D13:I21 D29:I53 D27:J28 D24:I26 D22:J23">
     <cfRule type="colorScale" priority="10">

--- a/Дизайнерская документация/Медицина.xlsx
+++ b/Дизайнерская документация/Медицина.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Здоровье" sheetId="7" r:id="rId1"/>
-    <sheet name="Травмы" sheetId="3" r:id="rId2"/>
-    <sheet name="Медикоменты" sheetId="5" r:id="rId3"/>
+    <sheet name="Медицина" sheetId="9" r:id="rId1"/>
+    <sheet name="Здоровье" sheetId="7" r:id="rId2"/>
+    <sheet name="Травмы" sheetId="3" r:id="rId3"/>
+    <sheet name="Медикаменты" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="132">
   <si>
     <t>Сознание</t>
   </si>
@@ -222,9 +223,6 @@
     <t>Кровопотеря</t>
   </si>
   <si>
-    <t>Кровопотеря (Прогрес.)</t>
-  </si>
-  <si>
     <t>0-50%</t>
   </si>
   <si>
@@ -298,12 +296,6 @@
     <t>Гемолитической реакция (Неправильная группа крови)</t>
   </si>
   <si>
-    <t>Смерть (50 %) (3 мин)</t>
-  </si>
-  <si>
-    <t>Смерть (при 80%)</t>
-  </si>
-  <si>
     <t>Жировая эмболия (20 %), кровотечение</t>
   </si>
   <si>
@@ -344,6 +336,90 @@
   </si>
   <si>
     <t>наркотическая зависимость (20%)</t>
+  </si>
+  <si>
+    <t>Медицина в игре устроена очень просто, игрок во время игры сталкивается с различными травмами. Если травмы игрока станут несовместимы с жизнь, он умирает и игра для него заканчивается.</t>
+  </si>
+  <si>
+    <t>Никто никогда точно не знает, что за травму получил игрок. Делать выводы можно по состоянию пациента и по его симптомам.</t>
+  </si>
+  <si>
+    <t>Общее описание</t>
+  </si>
+  <si>
+    <t>Диагностика</t>
+  </si>
+  <si>
+    <t>Так как иногда невозможно по симптомам выяснить, что за недуг у пациента, врач может просканировать его в медицинском сканере, это даст (ПРИДУМАТЬ ЧТО)</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>5 мин</t>
+  </si>
+  <si>
+    <t>Смерть</t>
+  </si>
+  <si>
+    <t>Медикаменты</t>
+  </si>
+  <si>
+    <t>Знания врача</t>
+  </si>
+  <si>
+    <t>Кровопотеря (Прогрес. * ст.)</t>
+  </si>
+  <si>
+    <t>Покраснение, боль</t>
+  </si>
+  <si>
+    <t>Покраснение, сильная боль</t>
+  </si>
+  <si>
+    <t>Покраснение, сильная боль, торчит кость</t>
+  </si>
+  <si>
+    <t>Разрез тканей, боль</t>
+  </si>
+  <si>
+    <t>Широкий разрез тканей, боль</t>
+  </si>
+  <si>
+    <t>Бежит кровь</t>
+  </si>
+  <si>
+    <t>Кровь медленно течёт</t>
+  </si>
+  <si>
+    <t>Хочется медикамент</t>
+  </si>
+  <si>
+    <t>Очень хочется медикамент</t>
+  </si>
+  <si>
+    <t>Проявление</t>
+  </si>
+  <si>
+    <t>Скрытый параметр</t>
+  </si>
+  <si>
+    <t>Исследование</t>
+  </si>
+  <si>
+    <t>Здоровье и характеристики</t>
+  </si>
+  <si>
+    <t>Здоровье игрока имеет 6 видимых для него параметров и 1 скрытый. Их влияние описано на листе "Здоровье". По достижении параметра "HP" значения 100% игрок умрёт.</t>
+  </si>
+  <si>
+    <t>Жизнь нужно спасти и врач опираясь на полученные зная должен сделать всё, чтобы пациент выжил. Делать он это может применяя медикаменты. Их влияние на организм описано на листе "Медикаменты"</t>
+  </si>
+  <si>
+    <t>Всем препаратам в начале игры даются случайные названия и только врач обладает знаниями о действии всех медикаментов. Естественно, ему не запрещено делится этим знаем.</t>
   </si>
 </sst>
 </file>
@@ -366,7 +442,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -433,8 +509,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="28">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -777,12 +865,120 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -919,6 +1115,69 @@
     <xf numFmtId="9" fontId="0" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="11" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -961,8 +1220,29 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -970,19 +1250,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1266,10 +1558,100 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F15"/>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="54.5703125" customWidth="1"/>
+    <col min="3" max="3" width="48.42578125" customWidth="1"/>
+    <col min="4" max="4" width="45.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="71"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="71"/>
+      <c r="B2" s="70" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="68" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" s="69" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2" s="71"/>
+    </row>
+    <row r="3" spans="1:5" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="71"/>
+      <c r="B3" s="61" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" s="62" t="s">
+        <v>105</v>
+      </c>
+      <c r="D3" s="63" t="s">
+        <v>108</v>
+      </c>
+      <c r="E3" s="71"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="71"/>
+      <c r="B4" s="67" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="68" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" s="69" t="s">
+        <v>114</v>
+      </c>
+      <c r="E4" s="71"/>
+    </row>
+    <row r="5" spans="1:5" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="71"/>
+      <c r="B5" s="64" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="65" t="s">
+        <v>130</v>
+      </c>
+      <c r="D5" s="66" t="s">
+        <v>131</v>
+      </c>
+      <c r="E5" s="71"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="71"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="71"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="53"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1306,12 +1688,12 @@
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="21"/>
-      <c r="B4" s="50" t="s">
-        <v>96</v>
-      </c>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="52"/>
+      <c r="B4" s="75" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="77"/>
       <c r="F4" s="21"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1320,7 +1702,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>12</v>
@@ -1358,12 +1740,12 @@
     </row>
     <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="21"/>
-      <c r="B8" s="53" t="s">
-        <v>98</v>
-      </c>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="55"/>
+      <c r="B8" s="78" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="80"/>
       <c r="F8" s="21"/>
     </row>
     <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1408,12 +1790,12 @@
     </row>
     <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="21"/>
-      <c r="B12" s="56" t="s">
+      <c r="B12" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="58"/>
+      <c r="C12" s="82"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="83"/>
       <c r="F12" s="21"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1432,29 +1814,43 @@
       </c>
       <c r="F13" s="21"/>
     </row>
-    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="21"/>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="60" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" s="57"/>
+      <c r="D14" s="58" t="s">
+        <v>112</v>
+      </c>
+      <c r="E14" s="59" t="s">
+        <v>126</v>
+      </c>
+      <c r="F14" s="21"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="21"/>
+      <c r="B15" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C15" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D15" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E15" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="21"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="21"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
       <c r="F15" s="21"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1466,12 +1862,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V51"/>
+  <dimension ref="A1:Y51"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1479,16 +1875,17 @@
     <col min="1" max="1" width="9.140625" style="30"/>
     <col min="2" max="2" width="26.85546875" style="30" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.28515625" style="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="6.7109375" style="30" customWidth="1"/>
-    <col min="11" max="11" width="38.42578125" style="30" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="36.85546875" style="30" bestFit="1" customWidth="1"/>
-    <col min="13" max="19" width="6.7109375" style="30" customWidth="1"/>
-    <col min="20" max="20" width="21.7109375" style="30" customWidth="1"/>
-    <col min="21" max="21" width="26.140625" style="30" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="30"/>
+    <col min="4" max="11" width="6.7109375" style="30" customWidth="1"/>
+    <col min="12" max="12" width="38.42578125" style="30" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="39.7109375" style="30" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="36.85546875" style="30" bestFit="1" customWidth="1"/>
+    <col min="15" max="22" width="6.7109375" style="30" customWidth="1"/>
+    <col min="23" max="23" width="21.7109375" style="30" customWidth="1"/>
+    <col min="24" max="24" width="26.140625" style="30" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="22"/>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
@@ -1511,49 +1908,57 @@
       <c r="T1" s="22"/>
       <c r="U1" s="22"/>
       <c r="V1" s="22"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W1" s="22"/>
+      <c r="X1" s="22"/>
+      <c r="Y1" s="22"/>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="22"/>
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="88" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="64" t="s">
+      <c r="C2" s="88"/>
+      <c r="D2" s="92" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="63" t="s">
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="63" t="s">
+      <c r="M2" s="95" t="s">
+        <v>125</v>
+      </c>
+      <c r="N2" s="88" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="64" t="s">
+      <c r="O2" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="64"/>
-      <c r="O2" s="64"/>
-      <c r="P2" s="64"/>
-      <c r="Q2" s="64"/>
-      <c r="R2" s="64"/>
-      <c r="S2" s="64"/>
-      <c r="T2" s="67" t="s">
-        <v>71</v>
-      </c>
-      <c r="U2" s="62" t="s">
+      <c r="P2" s="90"/>
+      <c r="Q2" s="90"/>
+      <c r="R2" s="90"/>
+      <c r="S2" s="90"/>
+      <c r="T2" s="90"/>
+      <c r="U2" s="90"/>
+      <c r="V2" s="91"/>
+      <c r="W2" s="95" t="s">
+        <v>70</v>
+      </c>
+      <c r="X2" s="87" t="s">
         <v>29</v>
       </c>
-      <c r="V2" s="22"/>
-    </row>
-    <row r="3" spans="1:22" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y2" s="22"/>
+    </row>
+    <row r="3" spans="1:25" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="22"/>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
       <c r="D3" s="34" t="s">
         <v>0</v>
       </c>
@@ -1575,36 +1980,43 @@
       <c r="J3" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="N3" s="34" t="s">
+      <c r="K3" s="54" t="s">
+        <v>109</v>
+      </c>
+      <c r="L3" s="88"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="P3" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="O3" s="34" t="s">
+      <c r="Q3" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="P3" s="34" t="s">
+      <c r="R3" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="Q3" s="34" t="s">
+      <c r="S3" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="R3" s="34" t="s">
+      <c r="T3" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="S3" s="35" t="s">
+      <c r="U3" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="T3" s="68"/>
-      <c r="U3" s="62"/>
-      <c r="V3" s="22"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V3" s="55" t="s">
+        <v>109</v>
+      </c>
+      <c r="W3" s="101"/>
+      <c r="X3" s="87"/>
+      <c r="Y3" s="22"/>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="22"/>
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="86" t="s">
         <v>33</v>
       </c>
       <c r="C4" s="23" t="s">
@@ -1631,22 +2043,22 @@
       <c r="J4" s="24">
         <v>0.1</v>
       </c>
-      <c r="K4" s="23"/>
-      <c r="L4" s="69" t="s">
+      <c r="K4" s="24">
+        <v>0.01</v>
+      </c>
+      <c r="L4" s="46"/>
+      <c r="M4" s="52" t="s">
+        <v>116</v>
+      </c>
+      <c r="N4" s="102" t="s">
         <v>37</v>
       </c>
-      <c r="M4" s="24">
-        <v>0</v>
-      </c>
-      <c r="N4" s="24">
+      <c r="O4" s="24">
+        <v>0</v>
+      </c>
+      <c r="P4" s="24">
         <v>-0.01</v>
       </c>
-      <c r="O4" s="24">
-        <v>0</v>
-      </c>
-      <c r="P4" s="24">
-        <v>0</v>
-      </c>
       <c r="Q4" s="24">
         <v>0</v>
       </c>
@@ -1654,17 +2066,26 @@
         <v>0</v>
       </c>
       <c r="S4" s="24">
+        <v>0</v>
+      </c>
+      <c r="T4" s="24">
+        <v>0</v>
+      </c>
+      <c r="U4" s="24">
         <v>0.01</v>
       </c>
-      <c r="T4" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="U4" s="23"/>
-      <c r="V4" s="22"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V4" s="24">
+        <v>0.01</v>
+      </c>
+      <c r="W4" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="X4" s="23"/>
+      <c r="Y4" s="22"/>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="22"/>
-      <c r="B5" s="59"/>
+      <c r="B5" s="84"/>
       <c r="C5" s="25" t="s">
         <v>31</v>
       </c>
@@ -1689,38 +2110,47 @@
       <c r="J5" s="26">
         <v>0.3</v>
       </c>
-      <c r="K5" s="25"/>
-      <c r="L5" s="65"/>
-      <c r="M5" s="26">
-        <v>0</v>
-      </c>
-      <c r="N5" s="26">
+      <c r="K5" s="26">
+        <v>0.02</v>
+      </c>
+      <c r="L5" s="48"/>
+      <c r="M5" s="50" t="s">
+        <v>116</v>
+      </c>
+      <c r="N5" s="103"/>
+      <c r="O5" s="26">
+        <v>0</v>
+      </c>
+      <c r="P5" s="26">
         <v>-0.05</v>
       </c>
-      <c r="O5" s="26">
+      <c r="Q5" s="26">
         <v>-0.01</v>
       </c>
-      <c r="P5" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="26">
-        <v>0</v>
-      </c>
       <c r="R5" s="26">
         <v>0</v>
       </c>
       <c r="S5" s="26">
+        <v>0</v>
+      </c>
+      <c r="T5" s="26">
+        <v>0</v>
+      </c>
+      <c r="U5" s="26">
         <v>0.05</v>
       </c>
-      <c r="T5" s="25" t="s">
+      <c r="V5" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="W5" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="U5" s="25"/>
-      <c r="V5" s="22"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="X5" s="25"/>
+      <c r="Y5" s="22"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="22"/>
-      <c r="B6" s="60"/>
+      <c r="B6" s="85"/>
       <c r="C6" s="27" t="s">
         <v>32</v>
       </c>
@@ -1745,36 +2175,45 @@
       <c r="J6" s="28">
         <v>0.5</v>
       </c>
-      <c r="K6" s="27"/>
-      <c r="L6" s="66"/>
-      <c r="M6" s="28">
-        <v>0</v>
-      </c>
-      <c r="N6" s="28">
+      <c r="K6" s="28">
+        <v>0.03</v>
+      </c>
+      <c r="L6" s="47"/>
+      <c r="M6" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="N6" s="104"/>
+      <c r="O6" s="28">
+        <v>0</v>
+      </c>
+      <c r="P6" s="28">
         <v>-0.1</v>
       </c>
-      <c r="O6" s="28">
+      <c r="Q6" s="28">
         <v>-0.05</v>
       </c>
-      <c r="P6" s="28">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="28">
-        <v>0</v>
-      </c>
       <c r="R6" s="28">
         <v>0</v>
       </c>
       <c r="S6" s="28">
+        <v>0</v>
+      </c>
+      <c r="T6" s="28">
+        <v>0</v>
+      </c>
+      <c r="U6" s="28">
         <v>0.1</v>
       </c>
-      <c r="T6" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="U6" s="27"/>
-      <c r="V6" s="22"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V6" s="28">
+        <v>0.01</v>
+      </c>
+      <c r="W6" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="X6" s="27"/>
+      <c r="Y6" s="22"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="22"/>
       <c r="B7" s="25"/>
       <c r="C7" s="25"/>
@@ -1785,22 +2224,25 @@
       <c r="H7" s="26"/>
       <c r="I7" s="26"/>
       <c r="J7" s="26"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="32"/>
       <c r="O7" s="26"/>
       <c r="P7" s="26"/>
       <c r="Q7" s="26"/>
       <c r="R7" s="26"/>
       <c r="S7" s="26"/>
-      <c r="T7" s="25"/>
-      <c r="U7" s="25"/>
-      <c r="V7" s="22"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T7" s="26"/>
+      <c r="U7" s="26"/>
+      <c r="V7" s="26"/>
+      <c r="W7" s="25"/>
+      <c r="X7" s="25"/>
+      <c r="Y7" s="22"/>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="22"/>
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="84" t="s">
         <v>34</v>
       </c>
       <c r="C8" s="25" t="s">
@@ -1827,40 +2269,49 @@
       <c r="J8" s="26">
         <v>0.1</v>
       </c>
-      <c r="K8" s="25"/>
-      <c r="L8" s="65" t="s">
+      <c r="K8" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="L8" s="25"/>
+      <c r="M8" s="50" t="s">
+        <v>116</v>
+      </c>
+      <c r="N8" s="97" t="s">
         <v>37</v>
       </c>
-      <c r="M8" s="26">
-        <v>0</v>
-      </c>
-      <c r="N8" s="26">
-        <v>0</v>
-      </c>
       <c r="O8" s="26">
+        <v>0</v>
+      </c>
+      <c r="P8" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="26">
         <v>-0.01</v>
       </c>
-      <c r="P8" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="26">
-        <v>0</v>
-      </c>
       <c r="R8" s="26">
         <v>0</v>
       </c>
       <c r="S8" s="26">
+        <v>0</v>
+      </c>
+      <c r="T8" s="26">
+        <v>0</v>
+      </c>
+      <c r="U8" s="26">
         <v>0.01</v>
       </c>
-      <c r="T8" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="U8" s="25"/>
-      <c r="V8" s="22"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V8" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="W8" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="X8" s="25"/>
+      <c r="Y8" s="22"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="22"/>
-      <c r="B9" s="59"/>
+      <c r="B9" s="84"/>
       <c r="C9" s="25" t="s">
         <v>31</v>
       </c>
@@ -1885,38 +2336,47 @@
       <c r="J9" s="26">
         <v>0.3</v>
       </c>
-      <c r="K9" s="25"/>
-      <c r="L9" s="65"/>
-      <c r="M9" s="26">
-        <v>0</v>
-      </c>
-      <c r="N9" s="26">
+      <c r="K9" s="26">
+        <v>0.02</v>
+      </c>
+      <c r="L9" s="25"/>
+      <c r="M9" s="50" t="s">
+        <v>116</v>
+      </c>
+      <c r="N9" s="97"/>
+      <c r="O9" s="26">
+        <v>0</v>
+      </c>
+      <c r="P9" s="26">
         <v>-0.01</v>
       </c>
-      <c r="O9" s="26">
+      <c r="Q9" s="26">
         <v>-0.05</v>
       </c>
-      <c r="P9" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="26">
-        <v>0</v>
-      </c>
       <c r="R9" s="26">
         <v>0</v>
       </c>
       <c r="S9" s="26">
+        <v>0</v>
+      </c>
+      <c r="T9" s="26">
+        <v>0</v>
+      </c>
+      <c r="U9" s="26">
         <v>0.05</v>
       </c>
-      <c r="T9" s="25" t="s">
+      <c r="V9" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="W9" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="U9" s="25"/>
-      <c r="V9" s="22"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="X9" s="25"/>
+      <c r="Y9" s="22"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="22"/>
-      <c r="B10" s="60"/>
+      <c r="B10" s="85"/>
       <c r="C10" s="27" t="s">
         <v>32</v>
       </c>
@@ -1941,36 +2401,45 @@
       <c r="J10" s="28">
         <v>0.5</v>
       </c>
-      <c r="K10" s="27"/>
-      <c r="L10" s="66"/>
-      <c r="M10" s="28">
-        <v>0</v>
-      </c>
-      <c r="N10" s="28">
+      <c r="K10" s="28">
+        <v>0.03</v>
+      </c>
+      <c r="L10" s="27"/>
+      <c r="M10" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="N10" s="98"/>
+      <c r="O10" s="28">
+        <v>0</v>
+      </c>
+      <c r="P10" s="28">
         <v>-0.05</v>
       </c>
-      <c r="O10" s="28">
+      <c r="Q10" s="28">
         <v>-0.1</v>
       </c>
-      <c r="P10" s="28">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="28">
-        <v>0</v>
-      </c>
       <c r="R10" s="28">
         <v>0</v>
       </c>
       <c r="S10" s="28">
+        <v>0</v>
+      </c>
+      <c r="T10" s="28">
+        <v>0</v>
+      </c>
+      <c r="U10" s="28">
         <v>0.1</v>
       </c>
-      <c r="T10" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="U10" s="27"/>
-      <c r="V10" s="22"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V10" s="28">
+        <v>0.01</v>
+      </c>
+      <c r="W10" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="X10" s="27"/>
+      <c r="Y10" s="22"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="22"/>
       <c r="B11" s="25"/>
       <c r="C11" s="25"/>
@@ -1981,22 +2450,25 @@
       <c r="H11" s="26"/>
       <c r="I11" s="26"/>
       <c r="J11" s="26"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="50"/>
+      <c r="N11" s="32"/>
       <c r="O11" s="26"/>
       <c r="P11" s="26"/>
       <c r="Q11" s="26"/>
       <c r="R11" s="26"/>
       <c r="S11" s="26"/>
-      <c r="T11" s="25"/>
-      <c r="U11" s="25"/>
-      <c r="V11" s="22"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T11" s="26"/>
+      <c r="U11" s="26"/>
+      <c r="V11" s="26"/>
+      <c r="W11" s="25"/>
+      <c r="X11" s="25"/>
+      <c r="Y11" s="22"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="22"/>
-      <c r="B12" s="59" t="s">
+      <c r="B12" s="84" t="s">
         <v>35</v>
       </c>
       <c r="C12" s="25" t="s">
@@ -2023,40 +2495,49 @@
       <c r="J12" s="26">
         <v>0.1</v>
       </c>
-      <c r="K12" s="25"/>
-      <c r="L12" s="65" t="s">
+      <c r="K12" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="L12" s="25"/>
+      <c r="M12" s="50" t="s">
+        <v>116</v>
+      </c>
+      <c r="N12" s="97" t="s">
         <v>37</v>
       </c>
-      <c r="M12" s="26">
-        <v>0</v>
-      </c>
-      <c r="N12" s="24">
-        <v>0</v>
-      </c>
-      <c r="O12" s="24">
-        <v>0</v>
-      </c>
-      <c r="P12" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="26">
+      <c r="O12" s="26">
+        <v>0</v>
+      </c>
+      <c r="P12" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="24">
         <v>0</v>
       </c>
       <c r="R12" s="26">
         <v>0</v>
       </c>
-      <c r="S12" s="24">
+      <c r="S12" s="26">
+        <v>0</v>
+      </c>
+      <c r="T12" s="26">
+        <v>0</v>
+      </c>
+      <c r="U12" s="24">
         <v>0.01</v>
       </c>
-      <c r="T12" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="U12" s="25"/>
-      <c r="V12" s="22"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V12" s="24">
+        <v>0.01</v>
+      </c>
+      <c r="W12" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="X12" s="25"/>
+      <c r="Y12" s="22"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="22"/>
-      <c r="B13" s="59"/>
+      <c r="B13" s="84"/>
       <c r="C13" s="25" t="s">
         <v>31</v>
       </c>
@@ -2081,38 +2562,47 @@
       <c r="J13" s="26">
         <v>0.3</v>
       </c>
-      <c r="K13" s="25"/>
-      <c r="L13" s="65"/>
-      <c r="M13" s="26">
-        <v>0</v>
-      </c>
-      <c r="N13" s="26">
+      <c r="K13" s="26">
+        <v>0.02</v>
+      </c>
+      <c r="L13" s="25"/>
+      <c r="M13" s="50" t="s">
+        <v>116</v>
+      </c>
+      <c r="N13" s="97"/>
+      <c r="O13" s="26">
+        <v>0</v>
+      </c>
+      <c r="P13" s="26">
         <v>-0.01</v>
       </c>
-      <c r="O13" s="26">
+      <c r="Q13" s="26">
         <v>-0.01</v>
       </c>
-      <c r="P13" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="26">
-        <v>0</v>
-      </c>
       <c r="R13" s="26">
         <v>0</v>
       </c>
       <c r="S13" s="26">
+        <v>0</v>
+      </c>
+      <c r="T13" s="26">
+        <v>0</v>
+      </c>
+      <c r="U13" s="26">
         <v>0.05</v>
       </c>
-      <c r="T13" s="25" t="s">
+      <c r="V13" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="W13" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="U13" s="25"/>
-      <c r="V13" s="22"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="X13" s="25"/>
+      <c r="Y13" s="22"/>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="22"/>
-      <c r="B14" s="60"/>
+      <c r="B14" s="85"/>
       <c r="C14" s="27" t="s">
         <v>32</v>
       </c>
@@ -2137,36 +2627,45 @@
       <c r="J14" s="28">
         <v>0.5</v>
       </c>
-      <c r="K14" s="27"/>
-      <c r="L14" s="66"/>
-      <c r="M14" s="28">
-        <v>0</v>
-      </c>
-      <c r="N14" s="28">
+      <c r="K14" s="28">
+        <v>0.03</v>
+      </c>
+      <c r="L14" s="27"/>
+      <c r="M14" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="N14" s="98"/>
+      <c r="O14" s="28">
+        <v>0</v>
+      </c>
+      <c r="P14" s="28">
         <v>-0.05</v>
       </c>
-      <c r="O14" s="28">
+      <c r="Q14" s="28">
         <v>-0.05</v>
       </c>
-      <c r="P14" s="28">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="28">
-        <v>0</v>
-      </c>
       <c r="R14" s="28">
         <v>0</v>
       </c>
       <c r="S14" s="28">
+        <v>0</v>
+      </c>
+      <c r="T14" s="28">
+        <v>0</v>
+      </c>
+      <c r="U14" s="28">
         <v>0.1</v>
       </c>
-      <c r="T14" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="U14" s="27"/>
-      <c r="V14" s="22"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V14" s="28">
+        <v>0.01</v>
+      </c>
+      <c r="W14" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="X14" s="27"/>
+      <c r="Y14" s="22"/>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="22"/>
       <c r="B15" s="25"/>
       <c r="C15" s="25"/>
@@ -2177,22 +2676,25 @@
       <c r="H15" s="26"/>
       <c r="I15" s="26"/>
       <c r="J15" s="26"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="48"/>
+      <c r="M15" s="52"/>
+      <c r="N15" s="73"/>
       <c r="O15" s="26"/>
       <c r="P15" s="26"/>
       <c r="Q15" s="26"/>
       <c r="R15" s="26"/>
       <c r="S15" s="26"/>
-      <c r="T15" s="25"/>
-      <c r="U15" s="25"/>
-      <c r="V15" s="22"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T15" s="26"/>
+      <c r="U15" s="26"/>
+      <c r="V15" s="26"/>
+      <c r="W15" s="25"/>
+      <c r="X15" s="25"/>
+      <c r="Y15" s="22"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="22"/>
-      <c r="B16" s="59" t="s">
+      <c r="B16" s="84" t="s">
         <v>36</v>
       </c>
       <c r="C16" s="25" t="s">
@@ -2219,40 +2721,49 @@
       <c r="J16" s="26">
         <v>0.8</v>
       </c>
-      <c r="K16" s="25"/>
-      <c r="L16" s="65" t="s">
+      <c r="K16" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="L16" s="48"/>
+      <c r="M16" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="N16" s="103" t="s">
         <v>38</v>
       </c>
-      <c r="M16" s="26">
-        <v>0</v>
-      </c>
-      <c r="N16" s="26">
-        <v>0</v>
-      </c>
       <c r="O16" s="26">
+        <v>0</v>
+      </c>
+      <c r="P16" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="26">
         <v>-0.1</v>
       </c>
-      <c r="P16" s="26">
+      <c r="R16" s="26">
         <v>-0.4</v>
       </c>
-      <c r="Q16" s="26">
-        <v>0</v>
-      </c>
-      <c r="R16" s="26">
-        <v>0</v>
-      </c>
       <c r="S16" s="26">
+        <v>0</v>
+      </c>
+      <c r="T16" s="26">
+        <v>0</v>
+      </c>
+      <c r="U16" s="26">
         <v>0.1</v>
       </c>
-      <c r="T16" s="25" t="s">
+      <c r="V16" s="26">
+        <v>0.05</v>
+      </c>
+      <c r="W16" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="U16" s="25"/>
-      <c r="V16" s="22"/>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="X16" s="25"/>
+      <c r="Y16" s="22"/>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="22"/>
-      <c r="B17" s="60"/>
+      <c r="B17" s="85"/>
       <c r="C17" s="27" t="s">
         <v>39</v>
       </c>
@@ -2277,38 +2788,47 @@
       <c r="J17" s="28">
         <v>0.8</v>
       </c>
-      <c r="K17" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="L17" s="66"/>
-      <c r="M17" s="28">
-        <v>0</v>
-      </c>
-      <c r="N17" s="28">
-        <v>0</v>
-      </c>
+      <c r="K17" s="28">
+        <v>0.15</v>
+      </c>
+      <c r="L17" s="47" t="s">
+        <v>90</v>
+      </c>
+      <c r="M17" s="51" t="s">
+        <v>118</v>
+      </c>
+      <c r="N17" s="104"/>
       <c r="O17" s="28">
+        <v>0</v>
+      </c>
+      <c r="P17" s="28">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="28">
         <v>-0.1</v>
       </c>
-      <c r="P17" s="28">
+      <c r="R17" s="28">
         <v>-0.4</v>
       </c>
-      <c r="Q17" s="28">
-        <v>0</v>
-      </c>
-      <c r="R17" s="28">
-        <v>0</v>
-      </c>
       <c r="S17" s="28">
+        <v>0</v>
+      </c>
+      <c r="T17" s="28">
+        <v>0</v>
+      </c>
+      <c r="U17" s="28">
         <v>0.1</v>
       </c>
-      <c r="T17" s="27" t="s">
+      <c r="V17" s="28">
+        <v>0.05</v>
+      </c>
+      <c r="W17" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="U17" s="27"/>
-      <c r="V17" s="22"/>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="X17" s="27"/>
+      <c r="Y17" s="22"/>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="22"/>
       <c r="B18" s="25"/>
       <c r="C18" s="25"/>
@@ -2319,22 +2839,25 @@
       <c r="H18" s="25"/>
       <c r="I18" s="25"/>
       <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="32"/>
-      <c r="M18" s="26"/>
-      <c r="N18" s="26"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="50"/>
+      <c r="N18" s="32"/>
       <c r="O18" s="26"/>
       <c r="P18" s="26"/>
       <c r="Q18" s="26"/>
       <c r="R18" s="26"/>
       <c r="S18" s="26"/>
-      <c r="T18" s="25"/>
-      <c r="U18" s="25"/>
-      <c r="V18" s="22"/>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T18" s="26"/>
+      <c r="U18" s="26"/>
+      <c r="V18" s="26"/>
+      <c r="W18" s="25"/>
+      <c r="X18" s="25"/>
+      <c r="Y18" s="22"/>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="22"/>
-      <c r="B19" s="59" t="s">
+      <c r="B19" s="84" t="s">
         <v>41</v>
       </c>
       <c r="C19" s="25" t="s">
@@ -2361,40 +2884,49 @@
       <c r="J19" s="26">
         <v>0.8</v>
       </c>
-      <c r="K19" s="25"/>
-      <c r="L19" s="65" t="s">
+      <c r="K19" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="L19" s="25"/>
+      <c r="M19" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="N19" s="97" t="s">
         <v>38</v>
       </c>
-      <c r="M19" s="26">
-        <v>0</v>
-      </c>
-      <c r="N19" s="26">
-        <v>0</v>
-      </c>
       <c r="O19" s="26">
+        <v>0</v>
+      </c>
+      <c r="P19" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="26">
         <v>-0.4</v>
       </c>
-      <c r="P19" s="26">
+      <c r="R19" s="26">
         <v>-0.1</v>
       </c>
-      <c r="Q19" s="26">
-        <v>0</v>
-      </c>
-      <c r="R19" s="26">
-        <v>0</v>
-      </c>
       <c r="S19" s="26">
+        <v>0</v>
+      </c>
+      <c r="T19" s="26">
+        <v>0</v>
+      </c>
+      <c r="U19" s="26">
         <v>0.1</v>
       </c>
-      <c r="T19" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="U19" s="25"/>
-      <c r="V19" s="22"/>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V19" s="26">
+        <v>0.05</v>
+      </c>
+      <c r="W19" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="X19" s="25"/>
+      <c r="Y19" s="22"/>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="22"/>
-      <c r="B20" s="60"/>
+      <c r="B20" s="85"/>
       <c r="C20" s="27" t="s">
         <v>39</v>
       </c>
@@ -2419,38 +2951,47 @@
       <c r="J20" s="28">
         <v>0.8</v>
       </c>
-      <c r="K20" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="L20" s="66"/>
-      <c r="M20" s="28">
-        <v>0</v>
-      </c>
-      <c r="N20" s="28">
-        <v>0</v>
-      </c>
+      <c r="K20" s="28">
+        <v>0.15</v>
+      </c>
+      <c r="L20" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="M20" s="51" t="s">
+        <v>118</v>
+      </c>
+      <c r="N20" s="98"/>
       <c r="O20" s="28">
+        <v>0</v>
+      </c>
+      <c r="P20" s="28">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="28">
         <v>-0.4</v>
       </c>
-      <c r="P20" s="28">
+      <c r="R20" s="28">
         <v>-0.1</v>
       </c>
-      <c r="Q20" s="28">
-        <v>0</v>
-      </c>
-      <c r="R20" s="28">
-        <v>0</v>
-      </c>
       <c r="S20" s="28">
+        <v>0</v>
+      </c>
+      <c r="T20" s="28">
+        <v>0</v>
+      </c>
+      <c r="U20" s="28">
         <v>0.1</v>
       </c>
-      <c r="T20" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="U20" s="27"/>
-      <c r="V20" s="22"/>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V20" s="28">
+        <v>0.05</v>
+      </c>
+      <c r="W20" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="X20" s="27"/>
+      <c r="Y20" s="22"/>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="22"/>
       <c r="B21" s="25"/>
       <c r="C21" s="25"/>
@@ -2461,20 +3002,23 @@
       <c r="H21" s="26"/>
       <c r="I21" s="26"/>
       <c r="J21" s="26"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="32"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="50"/>
+      <c r="N21" s="32"/>
       <c r="O21" s="26"/>
       <c r="P21" s="26"/>
       <c r="Q21" s="26"/>
       <c r="R21" s="26"/>
       <c r="S21" s="26"/>
-      <c r="T21" s="25"/>
-      <c r="U21" s="25"/>
-      <c r="V21" s="22"/>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T21" s="26"/>
+      <c r="U21" s="26"/>
+      <c r="V21" s="26"/>
+      <c r="W21" s="25"/>
+      <c r="X21" s="25"/>
+      <c r="Y21" s="22"/>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="22"/>
       <c r="B22" s="27" t="s">
         <v>51</v>
@@ -2501,16 +3045,16 @@
       <c r="J22" s="28">
         <v>0</v>
       </c>
-      <c r="K22" s="27"/>
-      <c r="L22" s="33" t="s">
+      <c r="K22" s="28">
+        <v>0.05</v>
+      </c>
+      <c r="L22" s="27"/>
+      <c r="M22" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="N22" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="M22" s="28">
-        <v>0</v>
-      </c>
-      <c r="N22" s="28">
-        <v>0</v>
-      </c>
       <c r="O22" s="28">
         <v>0</v>
       </c>
@@ -2526,13 +3070,22 @@
       <c r="S22" s="28">
         <v>0</v>
       </c>
-      <c r="T22" s="27" t="s">
+      <c r="T22" s="28">
+        <v>0</v>
+      </c>
+      <c r="U22" s="28">
+        <v>0</v>
+      </c>
+      <c r="V22" s="28">
+        <v>0.05</v>
+      </c>
+      <c r="W22" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="U22" s="27"/>
-      <c r="V22" s="22"/>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="X22" s="27"/>
+      <c r="Y22" s="22"/>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="22"/>
       <c r="B23" s="25"/>
       <c r="C23" s="25"/>
@@ -2543,23 +3096,26 @@
       <c r="H23" s="26"/>
       <c r="I23" s="26"/>
       <c r="J23" s="26"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="24"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="48"/>
+      <c r="M23" s="52"/>
+      <c r="N23" s="73"/>
       <c r="O23" s="24"/>
       <c r="P23" s="24"/>
       <c r="Q23" s="24"/>
       <c r="R23" s="24"/>
       <c r="S23" s="24"/>
-      <c r="T23" s="25"/>
-      <c r="U23" s="25"/>
-      <c r="V23" s="22"/>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T23" s="24"/>
+      <c r="U23" s="24"/>
+      <c r="V23" s="26"/>
+      <c r="W23" s="25"/>
+      <c r="X23" s="25"/>
+      <c r="Y23" s="22"/>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="22"/>
-      <c r="B24" s="59" t="s">
-        <v>69</v>
+      <c r="B24" s="84" t="s">
+        <v>68</v>
       </c>
       <c r="C24" s="25" t="s">
         <v>30</v>
@@ -2585,24 +3141,24 @@
       <c r="J24" s="26">
         <v>0.1</v>
       </c>
-      <c r="K24" s="59" t="s">
-        <v>70</v>
-      </c>
-      <c r="L24" s="32" t="s">
-        <v>99</v>
-      </c>
-      <c r="M24" s="26">
-        <v>0</v>
-      </c>
-      <c r="N24" s="26">
+      <c r="K24" s="26">
+        <v>0.05</v>
+      </c>
+      <c r="L24" s="99" t="s">
+        <v>69</v>
+      </c>
+      <c r="M24" s="50" t="s">
+        <v>119</v>
+      </c>
+      <c r="N24" s="73" t="s">
+        <v>96</v>
+      </c>
+      <c r="O24" s="26">
+        <v>0</v>
+      </c>
+      <c r="P24" s="26">
         <v>-0.01</v>
       </c>
-      <c r="O24" s="26">
-        <v>0</v>
-      </c>
-      <c r="P24" s="26">
-        <v>0</v>
-      </c>
       <c r="Q24" s="26">
         <v>0</v>
       </c>
@@ -2610,17 +3166,26 @@
         <v>0</v>
       </c>
       <c r="S24" s="26">
+        <v>0</v>
+      </c>
+      <c r="T24" s="26">
+        <v>0</v>
+      </c>
+      <c r="U24" s="26">
         <v>0.01</v>
       </c>
-      <c r="T24" s="25" t="s">
+      <c r="V24" s="26">
+        <v>0.02</v>
+      </c>
+      <c r="W24" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="U24" s="25"/>
-      <c r="V24" s="22"/>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="X24" s="25"/>
+      <c r="Y24" s="22"/>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="22"/>
-      <c r="B25" s="60"/>
+      <c r="B25" s="85"/>
       <c r="C25" s="27" t="s">
         <v>31</v>
       </c>
@@ -2645,38 +3210,47 @@
       <c r="J25" s="28">
         <v>0.3</v>
       </c>
-      <c r="K25" s="60"/>
-      <c r="L25" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="M25" s="28">
-        <v>0</v>
-      </c>
-      <c r="N25" s="28">
+      <c r="K25" s="28">
+        <v>0.08</v>
+      </c>
+      <c r="L25" s="100"/>
+      <c r="M25" s="51" t="s">
+        <v>120</v>
+      </c>
+      <c r="N25" s="74" t="s">
+        <v>97</v>
+      </c>
+      <c r="O25" s="28">
+        <v>0</v>
+      </c>
+      <c r="P25" s="28">
         <v>-0.05</v>
       </c>
-      <c r="O25" s="28">
+      <c r="Q25" s="28">
         <v>-0.01</v>
       </c>
-      <c r="P25" s="28">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="28">
-        <v>0</v>
-      </c>
       <c r="R25" s="28">
         <v>0</v>
       </c>
       <c r="S25" s="28">
+        <v>0</v>
+      </c>
+      <c r="T25" s="28">
+        <v>0</v>
+      </c>
+      <c r="U25" s="28">
         <v>0.05</v>
       </c>
-      <c r="T25" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="U25" s="27"/>
-      <c r="V25" s="22"/>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V25" s="28">
+        <v>0.04</v>
+      </c>
+      <c r="W25" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="X25" s="27"/>
+      <c r="Y25" s="22"/>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="22"/>
       <c r="B26" s="25"/>
       <c r="C26" s="25"/>
@@ -2687,22 +3261,25 @@
       <c r="H26" s="26"/>
       <c r="I26" s="26"/>
       <c r="J26" s="26"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="32"/>
-      <c r="M26" s="26"/>
-      <c r="N26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="50"/>
+      <c r="N26" s="32"/>
       <c r="O26" s="26"/>
       <c r="P26" s="26"/>
       <c r="Q26" s="26"/>
       <c r="R26" s="26"/>
       <c r="S26" s="26"/>
-      <c r="T26" s="25"/>
-      <c r="U26" s="25"/>
-      <c r="V26" s="22"/>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T26" s="26"/>
+      <c r="U26" s="26"/>
+      <c r="V26" s="26"/>
+      <c r="W26" s="25"/>
+      <c r="X26" s="25"/>
+      <c r="Y26" s="22"/>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" s="22"/>
-      <c r="B27" s="59" t="s">
+      <c r="B27" s="84" t="s">
         <v>63</v>
       </c>
       <c r="C27" s="25" t="s">
@@ -2729,17 +3306,17 @@
       <c r="J27" s="26">
         <v>0</v>
       </c>
-      <c r="K27" s="59" t="s">
-        <v>66</v>
-      </c>
-      <c r="L27" s="65" t="s">
-        <v>101</v>
-      </c>
-      <c r="M27" s="26">
-        <v>0</v>
-      </c>
-      <c r="N27" s="26">
-        <v>0</v>
+      <c r="K27" s="26">
+        <v>0.05</v>
+      </c>
+      <c r="L27" s="84" t="s">
+        <v>115</v>
+      </c>
+      <c r="M27" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="N27" s="97" t="s">
+        <v>98</v>
       </c>
       <c r="O27" s="26">
         <v>0</v>
@@ -2756,15 +3333,24 @@
       <c r="S27" s="26">
         <v>0</v>
       </c>
-      <c r="T27" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="U27" s="25"/>
-      <c r="V27" s="22"/>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T27" s="26">
+        <v>0</v>
+      </c>
+      <c r="U27" s="26">
+        <v>0</v>
+      </c>
+      <c r="V27" s="26">
+        <v>0.02</v>
+      </c>
+      <c r="W27" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="X27" s="25"/>
+      <c r="Y27" s="22"/>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" s="22"/>
-      <c r="B28" s="60"/>
+      <c r="B28" s="85"/>
       <c r="C28" s="27" t="s">
         <v>31</v>
       </c>
@@ -2789,14 +3375,14 @@
       <c r="J28" s="28">
         <v>0</v>
       </c>
-      <c r="K28" s="60"/>
-      <c r="L28" s="66"/>
-      <c r="M28" s="28">
-        <v>0</v>
-      </c>
-      <c r="N28" s="28">
-        <v>0</v>
-      </c>
+      <c r="K28" s="28">
+        <v>0.1</v>
+      </c>
+      <c r="L28" s="85"/>
+      <c r="M28" s="51" t="s">
+        <v>121</v>
+      </c>
+      <c r="N28" s="98"/>
       <c r="O28" s="28">
         <v>0</v>
       </c>
@@ -2812,13 +3398,22 @@
       <c r="S28" s="28">
         <v>0</v>
       </c>
-      <c r="T28" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="U28" s="27"/>
-      <c r="V28" s="22"/>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T28" s="28">
+        <v>0</v>
+      </c>
+      <c r="U28" s="28">
+        <v>0</v>
+      </c>
+      <c r="V28" s="28">
+        <v>0.04</v>
+      </c>
+      <c r="W28" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="X28" s="27"/>
+      <c r="Y28" s="22"/>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="22"/>
       <c r="B29" s="25"/>
       <c r="C29" s="25"/>
@@ -2829,87 +3424,99 @@
       <c r="H29" s="26"/>
       <c r="I29" s="26"/>
       <c r="J29" s="26"/>
-      <c r="K29" s="25"/>
-      <c r="L29" s="32"/>
-      <c r="M29" s="26"/>
-      <c r="N29" s="26"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="50"/>
+      <c r="N29" s="32"/>
       <c r="O29" s="26"/>
       <c r="P29" s="26"/>
       <c r="Q29" s="26"/>
       <c r="R29" s="26"/>
       <c r="S29" s="26"/>
-      <c r="T29" s="25"/>
-      <c r="U29" s="25"/>
-      <c r="V29" s="22"/>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T29" s="26"/>
+      <c r="U29" s="26"/>
+      <c r="V29" s="26"/>
+      <c r="W29" s="25"/>
+      <c r="X29" s="25"/>
+      <c r="Y29" s="22"/>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="22"/>
-      <c r="B30" s="59" t="s">
+      <c r="B30" s="84" t="s">
         <v>65</v>
       </c>
       <c r="C30" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="E30" s="26">
+        <v>0</v>
+      </c>
+      <c r="F30" s="26">
+        <v>0</v>
+      </c>
+      <c r="G30" s="26">
+        <v>0</v>
+      </c>
+      <c r="H30" s="26">
+        <v>0</v>
+      </c>
+      <c r="I30" s="26">
+        <v>0</v>
+      </c>
+      <c r="J30" s="26">
+        <v>0</v>
+      </c>
+      <c r="K30" s="56" t="s">
+        <v>110</v>
+      </c>
+      <c r="L30" s="25"/>
+      <c r="M30" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="N30" s="97" t="s">
+        <v>75</v>
+      </c>
+      <c r="O30" s="26">
+        <v>-0.1</v>
+      </c>
+      <c r="P30" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="26">
+        <v>0</v>
+      </c>
+      <c r="R30" s="26">
+        <v>0</v>
+      </c>
+      <c r="S30" s="26">
+        <v>0</v>
+      </c>
+      <c r="T30" s="26">
+        <v>0</v>
+      </c>
+      <c r="U30" s="26">
+        <v>0</v>
+      </c>
+      <c r="V30" s="26">
+        <v>0.05</v>
+      </c>
+      <c r="W30" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="X30" s="25"/>
+      <c r="Y30" s="22"/>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A31" s="22"/>
+      <c r="B31" s="85"/>
+      <c r="C31" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="D30" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="E30" s="26">
-        <v>0</v>
-      </c>
-      <c r="F30" s="26">
-        <v>0</v>
-      </c>
-      <c r="G30" s="26">
-        <v>0</v>
-      </c>
-      <c r="H30" s="26">
-        <v>0</v>
-      </c>
-      <c r="I30" s="26">
-        <v>0</v>
-      </c>
-      <c r="J30" s="26">
-        <v>0</v>
-      </c>
-      <c r="K30" s="25"/>
-      <c r="L30" s="65" t="s">
-        <v>76</v>
-      </c>
-      <c r="M30" s="26">
-        <v>-0.1</v>
-      </c>
-      <c r="N30" s="26">
-        <v>0</v>
-      </c>
-      <c r="O30" s="26">
-        <v>0</v>
-      </c>
-      <c r="P30" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="26">
-        <v>0</v>
-      </c>
-      <c r="R30" s="26">
-        <v>0</v>
-      </c>
-      <c r="S30" s="26">
-        <v>0</v>
-      </c>
-      <c r="T30" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="U30" s="25"/>
-      <c r="V30" s="22"/>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A31" s="22"/>
-      <c r="B31" s="60"/>
-      <c r="C31" s="27" t="s">
-        <v>68</v>
-      </c>
       <c r="D31" s="37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E31" s="28">
         <v>0</v>
@@ -2929,19 +3536,17 @@
       <c r="J31" s="28">
         <v>0</v>
       </c>
-      <c r="K31" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="L31" s="66"/>
-      <c r="M31" s="29">
+      <c r="K31" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="L31" s="27"/>
+      <c r="M31" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="N31" s="98"/>
+      <c r="O31" s="29">
         <v>-0.3</v>
       </c>
-      <c r="N31" s="28">
-        <v>0</v>
-      </c>
-      <c r="O31" s="28">
-        <v>0</v>
-      </c>
       <c r="P31" s="28">
         <v>0</v>
       </c>
@@ -2954,13 +3559,22 @@
       <c r="S31" s="28">
         <v>0</v>
       </c>
-      <c r="T31" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="U31" s="27"/>
-      <c r="V31" s="22"/>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T31" s="28">
+        <v>0</v>
+      </c>
+      <c r="U31" s="28">
+        <v>0</v>
+      </c>
+      <c r="V31" s="28">
+        <v>0.05</v>
+      </c>
+      <c r="W31" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="X31" s="27"/>
+      <c r="Y31" s="22"/>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="22"/>
       <c r="B32" s="25"/>
       <c r="C32" s="25"/>
@@ -2971,23 +3585,26 @@
       <c r="H32" s="26"/>
       <c r="I32" s="26"/>
       <c r="J32" s="26"/>
-      <c r="K32" s="25"/>
-      <c r="L32" s="32"/>
-      <c r="M32" s="26"/>
-      <c r="N32" s="26"/>
+      <c r="K32" s="26"/>
+      <c r="L32" s="25"/>
+      <c r="M32" s="50"/>
+      <c r="N32" s="32"/>
       <c r="O32" s="26"/>
       <c r="P32" s="26"/>
       <c r="Q32" s="26"/>
       <c r="R32" s="26"/>
       <c r="S32" s="26"/>
-      <c r="T32" s="25"/>
-      <c r="U32" s="25"/>
-      <c r="V32" s="22"/>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T32" s="26"/>
+      <c r="U32" s="26"/>
+      <c r="V32" s="28"/>
+      <c r="W32" s="25"/>
+      <c r="X32" s="25"/>
+      <c r="Y32" s="22"/>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="22"/>
       <c r="B33" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C33" s="27"/>
       <c r="D33" s="28">
@@ -3011,18 +3628,16 @@
       <c r="J33" s="28">
         <v>0.4</v>
       </c>
-      <c r="K33" s="27" t="s">
+      <c r="K33" s="28">
+        <v>0.4</v>
+      </c>
+      <c r="L33" s="27"/>
+      <c r="M33" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="N33" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="L33" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="M33" s="28">
-        <v>0</v>
-      </c>
-      <c r="N33" s="28">
-        <v>0</v>
-      </c>
       <c r="O33" s="28">
         <v>0</v>
       </c>
@@ -3038,13 +3653,22 @@
       <c r="S33" s="28">
         <v>0</v>
       </c>
-      <c r="T33" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="U33" s="27"/>
-      <c r="V33" s="22"/>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T33" s="28">
+        <v>0</v>
+      </c>
+      <c r="U33" s="28">
+        <v>0</v>
+      </c>
+      <c r="V33" s="28">
+        <v>0.2</v>
+      </c>
+      <c r="W33" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="X33" s="27"/>
+      <c r="Y33" s="22"/>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="22"/>
       <c r="B34" s="25"/>
       <c r="C34" s="25"/>
@@ -3055,84 +3679,96 @@
       <c r="H34" s="26"/>
       <c r="I34" s="26"/>
       <c r="J34" s="26"/>
-      <c r="K34" s="25"/>
-      <c r="L34" s="32"/>
-      <c r="M34" s="26"/>
-      <c r="N34" s="26"/>
+      <c r="K34" s="26"/>
+      <c r="L34" s="48"/>
+      <c r="M34" s="52"/>
+      <c r="N34" s="73"/>
       <c r="O34" s="26"/>
       <c r="P34" s="26"/>
       <c r="Q34" s="26"/>
       <c r="R34" s="26"/>
       <c r="S34" s="26"/>
-      <c r="T34" s="25"/>
-      <c r="U34" s="25"/>
-      <c r="V34" s="22"/>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T34" s="26"/>
+      <c r="U34" s="26"/>
+      <c r="V34" s="26"/>
+      <c r="W34" s="25"/>
+      <c r="X34" s="25"/>
+      <c r="Y34" s="22"/>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="22"/>
-      <c r="B35" s="59" t="s">
+      <c r="B35" s="84" t="s">
+        <v>79</v>
+      </c>
+      <c r="C35" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="D35" s="26">
+        <v>0</v>
+      </c>
+      <c r="E35" s="26">
+        <v>0</v>
+      </c>
+      <c r="F35" s="26">
+        <v>0</v>
+      </c>
+      <c r="G35" s="26">
+        <v>0</v>
+      </c>
+      <c r="H35" s="26">
+        <v>0</v>
+      </c>
+      <c r="I35" s="26">
+        <v>0</v>
+      </c>
+      <c r="J35" s="26">
+        <v>0</v>
+      </c>
+      <c r="K35" s="26">
+        <v>0</v>
+      </c>
+      <c r="L35" s="48"/>
+      <c r="M35" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="N35" s="73" t="s">
+        <v>84</v>
+      </c>
+      <c r="O35" s="26">
+        <v>0</v>
+      </c>
+      <c r="P35" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="26">
+        <v>0</v>
+      </c>
+      <c r="R35" s="26">
+        <v>0</v>
+      </c>
+      <c r="S35" s="26">
+        <v>0</v>
+      </c>
+      <c r="T35" s="26">
+        <v>0</v>
+      </c>
+      <c r="U35" s="26">
+        <v>0</v>
+      </c>
+      <c r="V35" s="26">
+        <v>0</v>
+      </c>
+      <c r="W35" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="X35" s="25"/>
+      <c r="Y35" s="22"/>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A36" s="22"/>
+      <c r="B36" s="85"/>
+      <c r="C36" s="27" t="s">
         <v>80</v>
-      </c>
-      <c r="C35" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="D35" s="26">
-        <v>0</v>
-      </c>
-      <c r="E35" s="26">
-        <v>0</v>
-      </c>
-      <c r="F35" s="26">
-        <v>0</v>
-      </c>
-      <c r="G35" s="26">
-        <v>0</v>
-      </c>
-      <c r="H35" s="26">
-        <v>0</v>
-      </c>
-      <c r="I35" s="26">
-        <v>0</v>
-      </c>
-      <c r="J35" s="26">
-        <v>0</v>
-      </c>
-      <c r="K35" s="25"/>
-      <c r="L35" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="M35" s="26">
-        <v>0</v>
-      </c>
-      <c r="N35" s="26">
-        <v>0</v>
-      </c>
-      <c r="O35" s="26">
-        <v>0</v>
-      </c>
-      <c r="P35" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="26">
-        <v>0</v>
-      </c>
-      <c r="R35" s="26">
-        <v>0</v>
-      </c>
-      <c r="S35" s="26">
-        <v>0</v>
-      </c>
-      <c r="T35" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="U35" s="25"/>
-      <c r="V35" s="22"/>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A36" s="22"/>
-      <c r="B36" s="60"/>
-      <c r="C36" s="27" t="s">
-        <v>81</v>
       </c>
       <c r="D36" s="28">
         <v>-0.2</v>
@@ -3155,15 +3791,15 @@
       <c r="J36" s="28">
         <v>0</v>
       </c>
-      <c r="K36" s="27"/>
-      <c r="L36" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="M36" s="26">
-        <v>0</v>
-      </c>
-      <c r="N36" s="26">
-        <v>0</v>
+      <c r="K36" s="28">
+        <v>0</v>
+      </c>
+      <c r="L36" s="47"/>
+      <c r="M36" s="51" t="s">
+        <v>124</v>
+      </c>
+      <c r="N36" s="74" t="s">
+        <v>83</v>
       </c>
       <c r="O36" s="26">
         <v>0</v>
@@ -3180,13 +3816,22 @@
       <c r="S36" s="26">
         <v>0</v>
       </c>
-      <c r="T36" s="27" t="s">
+      <c r="T36" s="26">
+        <v>0</v>
+      </c>
+      <c r="U36" s="26">
+        <v>0</v>
+      </c>
+      <c r="V36" s="26">
+        <v>0</v>
+      </c>
+      <c r="W36" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="U36" s="27"/>
-      <c r="V36" s="22"/>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="X36" s="27"/>
+      <c r="Y36" s="22"/>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="22"/>
       <c r="B37" s="25"/>
       <c r="C37" s="25"/>
@@ -3197,22 +3842,25 @@
       <c r="H37" s="26"/>
       <c r="I37" s="26"/>
       <c r="J37" s="26"/>
-      <c r="K37" s="25"/>
-      <c r="L37" s="32"/>
-      <c r="M37" s="26"/>
-      <c r="N37" s="26"/>
+      <c r="K37" s="26"/>
+      <c r="L37" s="25"/>
+      <c r="M37" s="50"/>
+      <c r="N37" s="32"/>
       <c r="O37" s="26"/>
       <c r="P37" s="26"/>
       <c r="Q37" s="26"/>
       <c r="R37" s="26"/>
       <c r="S37" s="26"/>
-      <c r="T37" s="25"/>
-      <c r="U37" s="25"/>
-      <c r="V37" s="22"/>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T37" s="26"/>
+      <c r="U37" s="26"/>
+      <c r="V37" s="26"/>
+      <c r="W37" s="25"/>
+      <c r="X37" s="25"/>
+      <c r="Y37" s="22"/>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="22"/>
-      <c r="B38" s="59" t="s">
+      <c r="B38" s="84" t="s">
         <v>55</v>
       </c>
       <c r="C38" s="25" t="s">
@@ -3239,16 +3887,16 @@
       <c r="J38" s="26">
         <v>0</v>
       </c>
-      <c r="K38" s="25"/>
-      <c r="L38" s="32" t="s">
+      <c r="K38" s="26">
+        <v>0</v>
+      </c>
+      <c r="L38" s="25"/>
+      <c r="M38" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="N38" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="M38" s="26">
-        <v>0</v>
-      </c>
-      <c r="N38" s="26">
-        <v>0</v>
-      </c>
       <c r="O38" s="26">
         <v>0</v>
       </c>
@@ -3264,15 +3912,24 @@
       <c r="S38" s="26">
         <v>0</v>
       </c>
-      <c r="T38" s="25" t="s">
+      <c r="T38" s="26">
+        <v>0</v>
+      </c>
+      <c r="U38" s="26">
+        <v>0</v>
+      </c>
+      <c r="V38" s="26">
+        <v>0</v>
+      </c>
+      <c r="W38" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="U38" s="25"/>
-      <c r="V38" s="22"/>
-    </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="X38" s="25"/>
+      <c r="Y38" s="22"/>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" s="22"/>
-      <c r="B39" s="59"/>
+      <c r="B39" s="84"/>
       <c r="C39" s="25" t="s">
         <v>57</v>
       </c>
@@ -3297,16 +3954,16 @@
       <c r="J39" s="26">
         <v>1</v>
       </c>
-      <c r="K39" s="25"/>
-      <c r="L39" s="32" t="s">
+      <c r="K39" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="L39" s="25"/>
+      <c r="M39" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="N39" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="M39" s="26">
-        <v>0</v>
-      </c>
-      <c r="N39" s="26">
-        <v>0</v>
-      </c>
       <c r="O39" s="26">
         <v>0</v>
       </c>
@@ -3322,15 +3979,24 @@
       <c r="S39" s="26">
         <v>0</v>
       </c>
-      <c r="T39" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="U39" s="25"/>
-      <c r="V39" s="22"/>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T39" s="26">
+        <v>0</v>
+      </c>
+      <c r="U39" s="26">
+        <v>0</v>
+      </c>
+      <c r="V39" s="26">
+        <v>0.05</v>
+      </c>
+      <c r="W39" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="X39" s="25"/>
+      <c r="Y39" s="22"/>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="22"/>
-      <c r="B40" s="60"/>
+      <c r="B40" s="85"/>
       <c r="C40" s="27" t="s">
         <v>58</v>
       </c>
@@ -3355,16 +4021,16 @@
       <c r="J40" s="28">
         <v>0</v>
       </c>
-      <c r="K40" s="27"/>
-      <c r="L40" s="33" t="s">
+      <c r="K40" s="28">
+        <v>0</v>
+      </c>
+      <c r="L40" s="27"/>
+      <c r="M40" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="N40" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="M40" s="28">
-        <v>0</v>
-      </c>
-      <c r="N40" s="28">
-        <v>0</v>
-      </c>
       <c r="O40" s="28">
         <v>0</v>
       </c>
@@ -3380,13 +4046,22 @@
       <c r="S40" s="28">
         <v>0</v>
       </c>
-      <c r="T40" s="27" t="s">
+      <c r="T40" s="28">
+        <v>0</v>
+      </c>
+      <c r="U40" s="28">
+        <v>0</v>
+      </c>
+      <c r="V40" s="28">
+        <v>0</v>
+      </c>
+      <c r="W40" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="U40" s="27"/>
-      <c r="V40" s="22"/>
-    </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="X40" s="27"/>
+      <c r="Y40" s="22"/>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" s="22"/>
       <c r="B41" s="22"/>
       <c r="C41" s="22"/>
@@ -3409,8 +4084,11 @@
       <c r="T41" s="22"/>
       <c r="U41" s="22"/>
       <c r="V41" s="22"/>
-    </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W41" s="22"/>
+      <c r="X41" s="22"/>
+      <c r="Y41" s="22"/>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="D46" s="31"/>
       <c r="E46" s="31"/>
       <c r="F46" s="31"/>
@@ -3418,15 +4096,17 @@
       <c r="H46" s="31"/>
       <c r="I46" s="31"/>
       <c r="J46" s="31"/>
-      <c r="M46" s="31"/>
-      <c r="N46" s="31"/>
+      <c r="K46" s="31"/>
       <c r="O46" s="31"/>
       <c r="P46" s="31"/>
       <c r="Q46" s="31"/>
       <c r="R46" s="31"/>
       <c r="S46" s="31"/>
-    </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T46" s="31"/>
+      <c r="U46" s="31"/>
+      <c r="V46" s="31"/>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="D47" s="31"/>
       <c r="E47" s="31"/>
       <c r="F47" s="31"/>
@@ -3434,15 +4114,17 @@
       <c r="H47" s="31"/>
       <c r="I47" s="31"/>
       <c r="J47" s="31"/>
-      <c r="M47" s="31"/>
-      <c r="N47" s="31"/>
+      <c r="K47" s="31"/>
       <c r="O47" s="31"/>
       <c r="P47" s="31"/>
       <c r="Q47" s="31"/>
       <c r="R47" s="31"/>
       <c r="S47" s="31"/>
-    </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T47" s="31"/>
+      <c r="U47" s="31"/>
+      <c r="V47" s="31"/>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="D48" s="31"/>
       <c r="E48" s="31"/>
       <c r="F48" s="31"/>
@@ -3450,15 +4132,17 @@
       <c r="H48" s="31"/>
       <c r="I48" s="31"/>
       <c r="J48" s="31"/>
-      <c r="M48" s="31"/>
-      <c r="N48" s="31"/>
+      <c r="K48" s="31"/>
       <c r="O48" s="31"/>
       <c r="P48" s="31"/>
       <c r="Q48" s="31"/>
       <c r="R48" s="31"/>
       <c r="S48" s="31"/>
-    </row>
-    <row r="49" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="T48" s="31"/>
+      <c r="U48" s="31"/>
+      <c r="V48" s="31"/>
+    </row>
+    <row r="49" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D49" s="31"/>
       <c r="E49" s="31"/>
       <c r="F49" s="31"/>
@@ -3466,15 +4150,17 @@
       <c r="H49" s="31"/>
       <c r="I49" s="31"/>
       <c r="J49" s="31"/>
-      <c r="M49" s="31"/>
-      <c r="N49" s="31"/>
+      <c r="K49" s="31"/>
       <c r="O49" s="31"/>
       <c r="P49" s="31"/>
       <c r="Q49" s="31"/>
       <c r="R49" s="31"/>
       <c r="S49" s="31"/>
-    </row>
-    <row r="50" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="T49" s="31"/>
+      <c r="U49" s="31"/>
+      <c r="V49" s="31"/>
+    </row>
+    <row r="50" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D50" s="31"/>
       <c r="E50" s="31"/>
       <c r="F50" s="31"/>
@@ -3482,15 +4168,17 @@
       <c r="H50" s="31"/>
       <c r="I50" s="31"/>
       <c r="J50" s="31"/>
-      <c r="M50" s="31"/>
-      <c r="N50" s="31"/>
+      <c r="K50" s="31"/>
       <c r="O50" s="31"/>
       <c r="P50" s="31"/>
       <c r="Q50" s="31"/>
       <c r="R50" s="31"/>
       <c r="S50" s="31"/>
-    </row>
-    <row r="51" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="T50" s="31"/>
+      <c r="U50" s="31"/>
+      <c r="V50" s="31"/>
+    </row>
+    <row r="51" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D51" s="31"/>
       <c r="E51" s="31"/>
       <c r="F51" s="31"/>
@@ -3498,32 +4186,35 @@
       <c r="H51" s="31"/>
       <c r="I51" s="31"/>
       <c r="J51" s="31"/>
-      <c r="M51" s="31"/>
-      <c r="N51" s="31"/>
+      <c r="K51" s="31"/>
       <c r="O51" s="31"/>
       <c r="P51" s="31"/>
       <c r="Q51" s="31"/>
       <c r="R51" s="31"/>
       <c r="S51" s="31"/>
+      <c r="T51" s="31"/>
+      <c r="U51" s="31"/>
+      <c r="V51" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="K27:K28"/>
+  <mergeCells count="27">
     <mergeCell ref="L27:L28"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="L30:L31"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="L12:L14"/>
-    <mergeCell ref="L8:L10"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="N30:N31"/>
+    <mergeCell ref="W2:W3"/>
+    <mergeCell ref="N12:N14"/>
+    <mergeCell ref="N8:N10"/>
+    <mergeCell ref="N4:N6"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="X2:X3"/>
     <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:J2"/>
-    <mergeCell ref="K2:K3"/>
     <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:S2"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:V2"/>
+    <mergeCell ref="D2:K2"/>
+    <mergeCell ref="M2:M3"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="B12:B14"/>
@@ -3535,7 +4226,7 @@
     <mergeCell ref="B35:B36"/>
     <mergeCell ref="B38:B40"/>
   </mergeCells>
-  <conditionalFormatting sqref="D37:I40 D35:J36 D4:I34">
+  <conditionalFormatting sqref="D37:I40 D35:K36 D4:I34">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -3547,7 +4238,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M37:R40 M4:R32 M35:S36 M34:R34 M33:S33">
+  <conditionalFormatting sqref="O37:T40 O4:T32 O35:V36 O34:T34 O33:U33">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -3559,7 +4250,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J37:J40 J4:J34">
+  <conditionalFormatting sqref="J37:K40 J4:K34">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -3571,7 +4262,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S37:S40 S4:S32 S34">
+  <conditionalFormatting sqref="U37:V40 U4:V31 U34:V34 U32 V32:V33">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -3588,11 +4279,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
@@ -3624,31 +4315,31 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="22"/>
-      <c r="B2" s="63" t="s">
-        <v>102</v>
-      </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="64" t="s">
+      <c r="B2" s="88" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="88"/>
+      <c r="D2" s="107" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="63" t="s">
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="88" t="s">
         <v>44</v>
       </c>
-      <c r="L2" s="63" t="s">
+      <c r="L2" s="88" t="s">
         <v>26</v>
       </c>
       <c r="M2" s="22"/>
     </row>
     <row r="3" spans="1:13" ht="55.5" x14ac:dyDescent="0.25">
       <c r="A3" s="22"/>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
       <c r="D3" s="34" t="s">
         <v>0</v>
       </c>
@@ -3670,14 +4361,14 @@
       <c r="J3" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
       <c r="M3" s="22"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="22"/>
       <c r="B4" s="46" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C4" s="38" t="s">
         <v>42</v>
@@ -3707,7 +4398,7 @@
         <v>53</v>
       </c>
       <c r="L4" s="41" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="M4" s="22"/>
     </row>
@@ -3742,7 +4433,7 @@
         <v>49</v>
       </c>
       <c r="L5" s="42" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="M5" s="22"/>
     </row>
@@ -3790,7 +4481,7 @@
       <c r="J7" s="26">
         <v>0</v>
       </c>
-      <c r="K7" s="70" t="s">
+      <c r="K7" s="105" t="s">
         <v>49</v>
       </c>
       <c r="L7" s="43"/>
@@ -3823,7 +4514,7 @@
       <c r="J8" s="28">
         <v>0</v>
       </c>
-      <c r="K8" s="71"/>
+      <c r="K8" s="106"/>
       <c r="L8" s="42"/>
       <c r="M8" s="22"/>
     </row>
@@ -3845,7 +4536,7 @@
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="22"/>
       <c r="B10" s="48" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C10" s="40" t="s">
         <v>46</v>
@@ -3871,8 +4562,8 @@
       <c r="J10" s="26">
         <v>0</v>
       </c>
-      <c r="K10" s="70" t="s">
-        <v>77</v>
+      <c r="K10" s="105" t="s">
+        <v>76</v>
       </c>
       <c r="L10" s="43"/>
       <c r="M10" s="22"/>
@@ -3904,7 +4595,7 @@
       <c r="J11" s="26">
         <v>0</v>
       </c>
-      <c r="K11" s="70"/>
+      <c r="K11" s="105"/>
       <c r="L11" s="43"/>
       <c r="M11" s="22"/>
     </row>
@@ -3935,7 +4626,7 @@
       <c r="J12" s="28">
         <v>0</v>
       </c>
-      <c r="K12" s="71"/>
+      <c r="K12" s="106"/>
       <c r="L12" s="42"/>
       <c r="M12" s="22"/>
     </row>
@@ -3983,8 +4674,8 @@
       <c r="J14" s="26">
         <v>0</v>
       </c>
-      <c r="K14" s="70" t="s">
-        <v>77</v>
+      <c r="K14" s="105" t="s">
+        <v>76</v>
       </c>
       <c r="L14" s="43"/>
       <c r="M14" s="22"/>
@@ -4016,7 +4707,7 @@
       <c r="J15" s="26">
         <v>0</v>
       </c>
-      <c r="K15" s="70"/>
+      <c r="K15" s="105"/>
       <c r="L15" s="43"/>
       <c r="M15" s="22"/>
     </row>
@@ -4047,7 +4738,7 @@
       <c r="J16" s="28">
         <v>0</v>
       </c>
-      <c r="K16" s="71"/>
+      <c r="K16" s="106"/>
       <c r="L16" s="42"/>
       <c r="M16" s="22"/>
     </row>
@@ -4097,7 +4788,7 @@
         <v>53</v>
       </c>
       <c r="L18" s="42" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M18" s="22"/>
     </row>
@@ -4119,7 +4810,7 @@
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="22"/>
       <c r="B20" s="47" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C20" s="39"/>
       <c r="D20" s="28">
@@ -4144,7 +4835,7 @@
         <v>0.8</v>
       </c>
       <c r="K20" s="39" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L20" s="42"/>
       <c r="M20" s="22"/>
@@ -4167,7 +4858,7 @@
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="22"/>
       <c r="B22" s="48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C22" s="40"/>
       <c r="D22" s="26">
@@ -4195,14 +4886,14 @@
         <v>64</v>
       </c>
       <c r="L22" s="43" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M22" s="22"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="22"/>
       <c r="B23" s="47" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C23" s="39"/>
       <c r="D23" s="28">
@@ -4230,7 +4921,7 @@
         <v>53</v>
       </c>
       <c r="L23" s="42" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="M23" s="22"/>
     </row>
@@ -4282,7 +4973,7 @@
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="22"/>
       <c r="B27" s="44" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C27" s="40"/>
       <c r="D27" s="26">
@@ -4307,7 +4998,7 @@
         <v>0</v>
       </c>
       <c r="K27" s="40" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L27" s="43"/>
       <c r="M27" s="22"/>
@@ -4315,7 +5006,7 @@
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="22"/>
       <c r="B28" s="45" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C28" s="39"/>
       <c r="D28" s="28">
@@ -4340,7 +5031,7 @@
         <v>0.1</v>
       </c>
       <c r="K28" s="39" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L28" s="42"/>
       <c r="M28" s="22"/>
